--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J348"/>
+  <dimension ref="A1:J356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12497,6 +12497,294 @@
         <v>380.77</v>
       </c>
       <c r="J348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>378.8028571428572</v>
+      </c>
+      <c r="C349" t="n">
+        <v>385.4269230769231</v>
+      </c>
+      <c r="D349" t="n">
+        <v>385.82</v>
+      </c>
+      <c r="E349" t="n">
+        <v>389.2</v>
+      </c>
+      <c r="F349" t="n">
+        <v>385.11</v>
+      </c>
+      <c r="G349" t="n">
+        <v>385.22</v>
+      </c>
+      <c r="H349" t="n">
+        <v>385.7952173913044</v>
+      </c>
+      <c r="I349" t="n">
+        <v>379.71</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>387.0614285714286</v>
+      </c>
+      <c r="C350" t="n">
+        <v>378.0530769230769</v>
+      </c>
+      <c r="D350" t="n">
+        <v>383.9188235294118</v>
+      </c>
+      <c r="E350" t="n">
+        <v>383.76</v>
+      </c>
+      <c r="F350" t="n">
+        <v>381.82</v>
+      </c>
+      <c r="G350" t="n">
+        <v>381.06</v>
+      </c>
+      <c r="H350" t="n">
+        <v>379.1360869565218</v>
+      </c>
+      <c r="I350" t="n">
+        <v>381.81</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>380.3452380952381</v>
+      </c>
+      <c r="C351" t="n">
+        <v>384.5107692307692</v>
+      </c>
+      <c r="D351" t="n">
+        <v>389.3872549019608</v>
+      </c>
+      <c r="E351" t="n">
+        <v>389.92</v>
+      </c>
+      <c r="F351" t="n">
+        <v>388.66</v>
+      </c>
+      <c r="G351" t="n">
+        <v>388.4833333333333</v>
+      </c>
+      <c r="H351" t="n">
+        <v>388.4286956521739</v>
+      </c>
+      <c r="I351" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>379.3033333333333</v>
+      </c>
+      <c r="C352" t="n">
+        <v>376.8976923076923</v>
+      </c>
+      <c r="D352" t="n">
+        <v>377.6421568627451</v>
+      </c>
+      <c r="E352" t="n">
+        <v>380.62</v>
+      </c>
+      <c r="F352" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="G352" t="n">
+        <v>379.5666666666667</v>
+      </c>
+      <c r="H352" t="n">
+        <v>392.3795652173913</v>
+      </c>
+      <c r="I352" t="n">
+        <v>388.7000000000001</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>388.3509523809525</v>
+      </c>
+      <c r="C353" t="n">
+        <v>391.4084615384616</v>
+      </c>
+      <c r="D353" t="n">
+        <v>398.7478431372549</v>
+      </c>
+      <c r="E353" t="n">
+        <v>396.81</v>
+      </c>
+      <c r="F353" t="n">
+        <v>395.09</v>
+      </c>
+      <c r="G353" t="n">
+        <v>390.4933333333333</v>
+      </c>
+      <c r="H353" t="n">
+        <v>394.69</v>
+      </c>
+      <c r="I353" t="n">
+        <v>390.89</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>375.1133333333333</v>
+      </c>
+      <c r="C354" t="n">
+        <v>374.4823076923077</v>
+      </c>
+      <c r="D354" t="n">
+        <v>382.3050980392157</v>
+      </c>
+      <c r="E354" t="n">
+        <v>381.71</v>
+      </c>
+      <c r="F354" t="n">
+        <v>382.49</v>
+      </c>
+      <c r="G354" t="n">
+        <v>383.6066666666667</v>
+      </c>
+      <c r="H354" t="n">
+        <v>385.1534782608696</v>
+      </c>
+      <c r="I354" t="n">
+        <v>386.15</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="C355" t="n">
+        <v>376.79</v>
+      </c>
+      <c r="D355" t="n">
+        <v>385.86</v>
+      </c>
+      <c r="E355" t="n">
+        <v>385.26</v>
+      </c>
+      <c r="F355" t="n">
+        <v>384.37</v>
+      </c>
+      <c r="G355" t="n">
+        <v>382.15</v>
+      </c>
+      <c r="H355" t="n">
+        <v>389.15</v>
+      </c>
+      <c r="I355" t="n">
+        <v>381.21</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>387.1819047619048</v>
+      </c>
+      <c r="C356" t="n">
+        <v>378.6261538461538</v>
+      </c>
+      <c r="D356" t="n">
+        <v>382.081568627451</v>
+      </c>
+      <c r="E356" t="n">
+        <v>389.44</v>
+      </c>
+      <c r="F356" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="G356" t="n">
+        <v>379.2466666666666</v>
+      </c>
+      <c r="H356" t="n">
+        <v>381.2078260869565</v>
+      </c>
+      <c r="I356" t="n">
+        <v>374.16</v>
+      </c>
+      <c r="J356" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12513,7 +12801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16181,6 +16469,86 @@
       </c>
       <c r="B366" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -16349,28 +16717,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1790669703184263</v>
+        <v>0.1636458045968355</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02168992654967794</v>
+        <v>0.01890360313810446</v>
       </c>
       <c r="M2" t="n">
-        <v>6.700225852810402</v>
+        <v>6.654366081398319</v>
       </c>
       <c r="N2" t="n">
-        <v>75.04099608558143</v>
+        <v>73.92072532762963</v>
       </c>
       <c r="O2" t="n">
-        <v>8.662620624590541</v>
+        <v>8.597716285597567</v>
       </c>
       <c r="P2" t="n">
-        <v>381.1148738759978</v>
+        <v>381.2663769152928</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16426,28 +16794,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2064017490412216</v>
+        <v>0.1793752594296102</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K3" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02385862920951265</v>
+        <v>0.018763546921581</v>
       </c>
       <c r="M3" t="n">
-        <v>7.683334131874786</v>
+        <v>7.682120653074454</v>
       </c>
       <c r="N3" t="n">
-        <v>89.64760592190341</v>
+        <v>88.85957939351823</v>
       </c>
       <c r="O3" t="n">
-        <v>9.468241965745458</v>
+        <v>9.426535916948401</v>
       </c>
       <c r="P3" t="n">
-        <v>381.1805928059659</v>
+        <v>381.4459949435682</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16497,28 +16865,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1988565590584812</v>
+        <v>0.1681838033592977</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02314535312006394</v>
+        <v>0.01717705430204486</v>
       </c>
       <c r="M4" t="n">
-        <v>7.746088670881995</v>
+        <v>7.768798963448471</v>
       </c>
       <c r="N4" t="n">
-        <v>85.04065185312523</v>
+        <v>84.70935601405448</v>
       </c>
       <c r="O4" t="n">
-        <v>9.221748850035183</v>
+        <v>9.20376857673282</v>
       </c>
       <c r="P4" t="n">
-        <v>387.0445168506129</v>
+        <v>387.3468335902741</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16574,28 +16942,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.265895962676061</v>
+        <v>0.2487445305305759</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05269036933966864</v>
+        <v>0.04801696455523707</v>
       </c>
       <c r="M5" t="n">
-        <v>6.695403336698808</v>
+        <v>6.665918854088861</v>
       </c>
       <c r="N5" t="n">
-        <v>66.13135584081927</v>
+        <v>65.43311764752207</v>
       </c>
       <c r="O5" t="n">
-        <v>8.132118779310794</v>
+        <v>8.089073967242609</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0923767991233</v>
+        <v>384.259949593045</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16651,28 +17019,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1045954085068158</v>
+        <v>0.1036121778818404</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K6" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007984412688012532</v>
+        <v>0.008137868821091687</v>
       </c>
       <c r="M6" t="n">
-        <v>6.664061863669382</v>
+        <v>6.601915946215535</v>
       </c>
       <c r="N6" t="n">
-        <v>70.11265410452654</v>
+        <v>69.2404138870251</v>
       </c>
       <c r="O6" t="n">
-        <v>8.373329929277034</v>
+        <v>8.321082494905642</v>
       </c>
       <c r="P6" t="n">
-        <v>381.8155137235946</v>
+        <v>381.8250793382339</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16722,28 +17090,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.008251044866811984</v>
+        <v>0.008579276093091788</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K7" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L7" t="n">
-        <v>4.805242790073549e-05</v>
+        <v>5.437794769469484e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>6.909321292042568</v>
+        <v>6.820021074606228</v>
       </c>
       <c r="N7" t="n">
-        <v>72.7624890702496</v>
+        <v>71.35087814558247</v>
       </c>
       <c r="O7" t="n">
-        <v>8.530093145461519</v>
+        <v>8.446944900115216</v>
       </c>
       <c r="P7" t="n">
-        <v>383.4456902003992</v>
+        <v>383.4425975430664</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16799,28 +17167,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02091842678503865</v>
+        <v>-0.00461126347115573</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K8" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002712785370606596</v>
+        <v>1.372947307032302e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>7.079706167563074</v>
+        <v>7.025900263762674</v>
       </c>
       <c r="N8" t="n">
-        <v>82.65928691350992</v>
+        <v>81.50917733479669</v>
       </c>
       <c r="O8" t="n">
-        <v>9.091715289949962</v>
+        <v>9.028243313889845</v>
       </c>
       <c r="P8" t="n">
-        <v>384.0771159182258</v>
+        <v>383.9171731426325</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16876,28 +17244,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05147461268280118</v>
+        <v>-0.03253505320962403</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K9" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001791961601010583</v>
+        <v>0.0007462551018198038</v>
       </c>
       <c r="M9" t="n">
-        <v>6.838856101583805</v>
+        <v>6.778411082820097</v>
       </c>
       <c r="N9" t="n">
-        <v>75.64551643733783</v>
+        <v>74.71058088963505</v>
       </c>
       <c r="O9" t="n">
-        <v>8.697443097677491</v>
+        <v>8.643528266259969</v>
       </c>
       <c r="P9" t="n">
-        <v>380.5036246778072</v>
+        <v>380.318748032053</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -16934,7 +17302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J348"/>
+  <dimension ref="A1:J356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34082,6 +34450,422 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-36.727611505905344,175.68602881757994</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-36.72762742811151,175.68692861349012</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-36.72769895555239,175.68780592483176</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-36.727662958416246,175.6886823541595</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-36.72767874390128,175.68958500394106</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-36.72768682248515,175.6904859811932</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-36.72767616441238,175.69137003525108</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-36.7276747533118,175.69226204673976</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-36.72753738860307,175.6860368239038</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-36.72769360536933,175.68692146536748</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-36.72771607453703,175.68780528846628</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-36.727711930514474,175.68868461586766</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-36.72770837131253,175.6895859769269</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-36.72772429257998,175.69048674092</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-36.72773603593048,175.69137468326605</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-36.727655925757425,175.69225975526388</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-36.72759766366691,175.68603031285167</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-36.72763565021816,175.68692772538148</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-36.72766683450369,175.6878071188702</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-36.72765647681498,175.68868205481616</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-36.727646775113854,175.68958395406435</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-36.72765742887692,175.69048538522296</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-36.727652487095234,175.69136819710903</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-36.72765646368755,175.6922598207346</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-36.72760701433616,175.68602930277004</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-36.72770397447436,175.68692034534996</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-36.72777259225718,175.68780318752778</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-36.7277401974974,175.68868592134106</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-36.727786447194894,175.68958854100308</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-36.727737743383194,175.69048701364287</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-36.727616965255585,175.69136543944373</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-36.72759415344706,175.69225223705047</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-36.727525815654005,175.68603807403974</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-36.72757374624619,175.6869344119191</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-36.7275825478684,175.68781025206363</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-36.727594451491235,175.6886791902708</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-36.727588871084315,175.68958205246096</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-36.727639324335726,175.69048501814484</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-36.72759619238696,175.69136382678624</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-36.72757451899685,175.69224984737477</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-36.727644617872926,175.68602524074439</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-36.727725651564704,175.68691800390124</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-36.7277306051933,175.68780474831686</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-36.72773038507341,175.688685468167</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-36.72770233776679,175.68958577878075</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-36.72770135415657,175.6904862758306</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-36.727681934219206,175.69137048317896</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-36.72761701547791,175.69225501955148</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-36.727577428100645,175.68603249874528</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-36.72770494096884,175.68692024095418</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-36.727698595375735,175.68780593822066</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-36.727698427178616,175.68868399223442</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-36.72768540781751,175.68958522278882</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-36.72771447469458,175.69048654185679</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-36.727646001926125,175.69136769364593</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-36.72766130505869,175.6922604099711</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-36.72753630737851,175.68603694070012</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-36.727688462238014,175.68692202090205</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-36.72773261794519,175.68780467349666</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-36.7276607978825,175.6886822543784</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-36.72769594400936,175.689585568805</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-36.72774062569816,175.6904870720835</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-36.72771740914919,175.69137323720912</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-36.727724511847676,175.69226810278997</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -16562,7 +16562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16653,35 +16653,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16740,27 +16745,28 @@
       <c r="P2" t="n">
         <v>381.2663769152928</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.685661572983 -36.73101110589311, 175.68655309720813 -36.72275785256896)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.685661572983</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.73101110589311</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.6865530972081</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.72275785256896</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.6861073350956</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.72688447923103</v>
       </c>
     </row>
@@ -16817,27 +16823,28 @@
       <c r="P3" t="n">
         <v>381.4459949435682</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.68655497329544 -36.73108647655576, 175.68744643493838 -36.722833224751696)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.6865549732954</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.73108647655576</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.6874464349384</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.7228332247517</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.6870007041169</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.72695985065373</v>
       </c>
     </row>
@@ -16888,27 +16895,28 @@
       <c r="P4" t="n">
         <v>387.3468335902741</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.68767678149777 -36.73117303876253, 175.6879845954471 -36.72289245634984)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.6876767814978</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.73117303876253</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.6879845954471</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.72289245634984</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.6878306884724</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.72703274755618</v>
       </c>
     </row>
@@ -16965,27 +16973,28 @@
       <c r="P5" t="n">
         <v>384.259949593045</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.6888441782593 -36.73116662266174, 175.68846185562248 -36.72288806409774)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.6888441782593</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.73116662266174</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.6884618556225</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.72288806409774</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.6886530169409</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.72702734337974</v>
       </c>
     </row>
@@ -17042,27 +17051,28 @@
       <c r="P6" t="n">
         <v>381.8250793382339</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.68969890646676 -36.73114677081719, 175.6894269495588 -36.72286539514036)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.6896989064668</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.73114677081719</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.6894269495588</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.72286539514036</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.6895629280128</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.72700608297878</v>
       </c>
     </row>
@@ -17113,27 +17123,28 @@
       <c r="P7" t="n">
         <v>383.4425975430664</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.6905563406165 -36.73115658825594, 175.6903884027089 -36.722873429193015)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.6905563406165</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.73115658825594</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.6903884027089</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.72287342919302</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.6904723716627</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.72701500872448</v>
       </c>
     </row>
@@ -17190,27 +17201,28 @@
       <c r="P8" t="n">
         <v>383.9171731426325</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.69163933367463 -36.731144805616886, 175.69099746622618 -36.722876639509366)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.6916393336746</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.73114480561689</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.6909974662262</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.72287663950937</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.6913183999504</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.72701072256312</v>
       </c>
     </row>
@@ -17267,27 +17279,28 @@
       <c r="P9" t="n">
         <v>380.318748032053</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.6926764014464 -36.731079041758974, 175.6916729514779 -36.72283415866582)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.6926764014464</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.73107904175897</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.6916729514779</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.72283415866582</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.6921746764621</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.7269566002124</v>
       </c>
     </row>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J356"/>
+  <dimension ref="A1:J359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12785,6 +12785,114 @@
         <v>374.16</v>
       </c>
       <c r="J356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>387.4952380952381</v>
+      </c>
+      <c r="C357" t="n">
+        <v>390.4061538461538</v>
+      </c>
+      <c r="D357" t="n">
+        <v>395.9543137254902</v>
+      </c>
+      <c r="E357" t="n">
+        <v>394</v>
+      </c>
+      <c r="F357" t="n">
+        <v>392.04</v>
+      </c>
+      <c r="G357" t="n">
+        <v>392.2333333333333</v>
+      </c>
+      <c r="H357" t="n">
+        <v>390.2747826086956</v>
+      </c>
+      <c r="I357" t="n">
+        <v>383.79</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>391.754761904762</v>
+      </c>
+      <c r="C358" t="n">
+        <v>388.6492307692308</v>
+      </c>
+      <c r="D358" t="n">
+        <v>385.1527450980393</v>
+      </c>
+      <c r="E358" t="n">
+        <v>378.83</v>
+      </c>
+      <c r="F358" t="n">
+        <v>396.08</v>
+      </c>
+      <c r="G358" t="n">
+        <v>392.0066666666667</v>
+      </c>
+      <c r="H358" t="n">
+        <v>395.9413043478261</v>
+      </c>
+      <c r="I358" t="n">
+        <v>390.42</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>381.6771428571428</v>
+      </c>
+      <c r="C359" t="n">
+        <v>377.6176923076923</v>
+      </c>
+      <c r="D359" t="n">
+        <v>382.4629411764706</v>
+      </c>
+      <c r="E359" t="n">
+        <v>376.85</v>
+      </c>
+      <c r="F359" t="n">
+        <v>379.24</v>
+      </c>
+      <c r="G359" t="n">
+        <v>378.03</v>
+      </c>
+      <c r="H359" t="n">
+        <v>374.7586956521739</v>
+      </c>
+      <c r="I359" t="n">
+        <v>373.74</v>
+      </c>
+      <c r="J359" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12801,7 +12909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16549,6 +16657,36 @@
       </c>
       <c r="B374" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -16722,28 +16860,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1636458045968355</v>
+        <v>0.1663536903635441</v>
       </c>
       <c r="J2" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01890360313810446</v>
+        <v>0.01982614892220858</v>
       </c>
       <c r="M2" t="n">
-        <v>6.654366081398319</v>
+        <v>6.629284481781386</v>
       </c>
       <c r="N2" t="n">
-        <v>73.92072532762963</v>
+        <v>73.41779472446711</v>
       </c>
       <c r="O2" t="n">
-        <v>8.597716285597567</v>
+        <v>8.56841844942619</v>
       </c>
       <c r="P2" t="n">
-        <v>381.2663769152928</v>
+        <v>381.2395384380549</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16800,28 +16938,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1793752594296102</v>
+        <v>0.1785404931670402</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.018763546921581</v>
+        <v>0.01887628569398681</v>
       </c>
       <c r="M3" t="n">
-        <v>7.682120653074454</v>
+        <v>7.659288881121975</v>
       </c>
       <c r="N3" t="n">
-        <v>88.85957939351823</v>
+        <v>88.33595080751063</v>
       </c>
       <c r="O3" t="n">
-        <v>9.426535916948401</v>
+        <v>9.398720700579981</v>
       </c>
       <c r="P3" t="n">
-        <v>381.4459949435682</v>
+        <v>381.4544724285165</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16872,28 +17010,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1681838033592977</v>
+        <v>0.1613592384863532</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01717705430204486</v>
+        <v>0.0160478277259225</v>
       </c>
       <c r="M4" t="n">
-        <v>7.768798963448471</v>
+        <v>7.762467215038228</v>
       </c>
       <c r="N4" t="n">
-        <v>84.70935601405448</v>
+        <v>84.36896395435018</v>
       </c>
       <c r="O4" t="n">
-        <v>9.20376857673282</v>
+        <v>9.185257968851511</v>
       </c>
       <c r="P4" t="n">
-        <v>387.3468335902741</v>
+        <v>387.4150354585995</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16950,28 +17088,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2487445305305759</v>
+        <v>0.2359888504909156</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K5" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04801696455523707</v>
+        <v>0.04353900192498117</v>
       </c>
       <c r="M5" t="n">
-        <v>6.665918854088861</v>
+        <v>6.698614678223112</v>
       </c>
       <c r="N5" t="n">
-        <v>65.43311764752207</v>
+        <v>65.84879650342839</v>
       </c>
       <c r="O5" t="n">
-        <v>8.089073967242609</v>
+        <v>8.11472713672052</v>
       </c>
       <c r="P5" t="n">
-        <v>384.259949593045</v>
+        <v>384.3862518800532</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17028,28 +17166,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1036121778818404</v>
+        <v>0.1116597620529011</v>
       </c>
       <c r="J6" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008137868821091687</v>
+        <v>0.009521315783735163</v>
       </c>
       <c r="M6" t="n">
-        <v>6.601915946215535</v>
+        <v>6.617144750748743</v>
       </c>
       <c r="N6" t="n">
-        <v>69.2404138870251</v>
+        <v>69.27170747607558</v>
       </c>
       <c r="O6" t="n">
-        <v>8.321082494905642</v>
+        <v>8.322962662181993</v>
       </c>
       <c r="P6" t="n">
-        <v>381.8250793382339</v>
+        <v>381.7456204584495</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17100,28 +17238,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.008579276093091788</v>
+        <v>0.01514546299569198</v>
       </c>
       <c r="J7" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K7" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L7" t="n">
-        <v>5.437794769469484e-05</v>
+        <v>0.0001713427462207706</v>
       </c>
       <c r="M7" t="n">
-        <v>6.820021074606228</v>
+        <v>6.827348957485651</v>
       </c>
       <c r="N7" t="n">
-        <v>71.35087814558247</v>
+        <v>71.22939789304614</v>
       </c>
       <c r="O7" t="n">
-        <v>8.446944900115216</v>
+        <v>8.4397510563432</v>
       </c>
       <c r="P7" t="n">
-        <v>383.4425975430664</v>
+        <v>383.3777195834753</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17178,28 +17316,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.00461126347115573</v>
+        <v>0.0009715849073054861</v>
       </c>
       <c r="J8" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K8" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L8" t="n">
-        <v>1.372947307032302e-05</v>
+        <v>6.147626218089286e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>7.025900263762674</v>
+        <v>7.043432917523039</v>
       </c>
       <c r="N8" t="n">
-        <v>81.50917733479669</v>
+        <v>81.5866410639873</v>
       </c>
       <c r="O8" t="n">
-        <v>9.028243313889845</v>
+        <v>9.032532372706299</v>
       </c>
       <c r="P8" t="n">
-        <v>383.9171731426325</v>
+        <v>383.8620704390063</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17256,28 +17394,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03253505320962403</v>
+        <v>-0.02676748246019775</v>
       </c>
       <c r="J9" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K9" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007462551018198038</v>
+        <v>0.0005115181837955785</v>
       </c>
       <c r="M9" t="n">
-        <v>6.778411082820097</v>
+        <v>6.775687756011353</v>
       </c>
       <c r="N9" t="n">
-        <v>74.71058088963505</v>
+        <v>74.5417167886196</v>
       </c>
       <c r="O9" t="n">
-        <v>8.643528266259969</v>
+        <v>8.6337545012943</v>
       </c>
       <c r="P9" t="n">
-        <v>380.318748032053</v>
+        <v>380.2619680714253</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17315,7 +17453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J356"/>
+  <dimension ref="A1:J359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34879,6 +35017,162 @@
         </is>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-36.72753349533993,175.68603724446288</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-36.72758274154849,175.6869334402949</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-36.727607701970854,175.6878093170084</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-36.72761974774092,175.68868035853873</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-36.72761633722594,175.68958295446495</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-36.72762365174778,175.69048470037603</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-36.72763588912773,175.69136690855933</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-36.727638174063166,175.69225759473076</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.72749526785483,175.68604137388033</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-36.72759850921575,175.68693173715582</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-36.72770496379339,175.68780570148692</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-36.727756311478025,175.6886866655448</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-36.727579955844874,175.68958175967958</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-36.72762569338758,175.6904847417712</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-36.72758494204518,175.69136295339038</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-36.72757873278298,175.69225036022743</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.72758571036622,175.68603160407548</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.72769751276844,175.6869210433103</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.72772918390797,175.68780480115043</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.72777413588113,175.68868748874283</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-36.72773160496623,175.68958673993814</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-36.72775158449986,175.69048729427985</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>-36.727775392579446,175.6913777386525</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>-36.727728277358466,175.69226856108605</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12895,6 +12895,78 @@
       <c r="J359" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>392.0828571428572</v>
+      </c>
+      <c r="C360" t="n">
+        <v>389.8569230769231</v>
+      </c>
+      <c r="D360" t="n">
+        <v>394.33</v>
+      </c>
+      <c r="E360" t="n">
+        <v>393.58</v>
+      </c>
+      <c r="F360" t="n">
+        <v>387.47</v>
+      </c>
+      <c r="G360" t="n">
+        <v>387.72</v>
+      </c>
+      <c r="H360" t="n">
+        <v>380.1352173913044</v>
+      </c>
+      <c r="I360" t="n">
+        <v>378.71</v>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>392.3633333333333</v>
+      </c>
+      <c r="C361" t="n">
+        <v>396.3823076923077</v>
+      </c>
+      <c r="D361" t="n">
+        <v>402.0050980392157</v>
+      </c>
+      <c r="E361" t="n">
+        <v>400.12</v>
+      </c>
+      <c r="F361" t="n">
+        <v>394.39</v>
+      </c>
+      <c r="G361" t="n">
+        <v>395.0666666666667</v>
+      </c>
+      <c r="H361" t="n">
+        <v>381.6334782608696</v>
+      </c>
+      <c r="I361" t="n">
+        <v>386.73</v>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B377"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16687,6 +16759,26 @@
       </c>
       <c r="B377" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -16860,28 +16952,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1663536903635441</v>
+        <v>0.1741974786021148</v>
       </c>
       <c r="J2" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01982614892220858</v>
+        <v>0.02187735605274033</v>
       </c>
       <c r="M2" t="n">
-        <v>6.629284481781386</v>
+        <v>6.627210662746815</v>
       </c>
       <c r="N2" t="n">
-        <v>73.41779472446711</v>
+        <v>73.24114711014822</v>
       </c>
       <c r="O2" t="n">
-        <v>8.56841844942619</v>
+        <v>8.55810417733672</v>
       </c>
       <c r="P2" t="n">
-        <v>381.2395384380549</v>
+        <v>381.1609650706629</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16938,28 +17030,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1785404931670402</v>
+        <v>0.1869916996900337</v>
       </c>
       <c r="J3" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01887628569398681</v>
+        <v>0.02083700631158292</v>
       </c>
       <c r="M3" t="n">
-        <v>7.659288881121975</v>
+        <v>7.64890606744637</v>
       </c>
       <c r="N3" t="n">
-        <v>88.33595080751063</v>
+        <v>88.16307928176313</v>
       </c>
       <c r="O3" t="n">
-        <v>9.398720700579981</v>
+        <v>9.389519651279459</v>
       </c>
       <c r="P3" t="n">
-        <v>381.4544724285165</v>
+        <v>381.3700222437725</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17010,28 +17102,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1613592384863532</v>
+        <v>0.1692949746607702</v>
       </c>
       <c r="J4" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0160478277259225</v>
+        <v>0.01778255369921034</v>
       </c>
       <c r="M4" t="n">
-        <v>7.762467215038228</v>
+        <v>7.750295100505689</v>
       </c>
       <c r="N4" t="n">
-        <v>84.36896395435018</v>
+        <v>84.20677791876707</v>
       </c>
       <c r="O4" t="n">
-        <v>9.185257968851511</v>
+        <v>9.176425116501909</v>
       </c>
       <c r="P4" t="n">
-        <v>387.4150354585995</v>
+        <v>387.3353899162381</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17088,28 +17180,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2359888504909156</v>
+        <v>0.2433767116458646</v>
       </c>
       <c r="J5" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04353900192498117</v>
+        <v>0.0465055054006327</v>
       </c>
       <c r="M5" t="n">
-        <v>6.698614678223112</v>
+        <v>6.692886117554956</v>
       </c>
       <c r="N5" t="n">
-        <v>65.84879650342839</v>
+        <v>65.76188763969854</v>
       </c>
       <c r="O5" t="n">
-        <v>8.11472713672052</v>
+        <v>8.109370360249835</v>
       </c>
       <c r="P5" t="n">
-        <v>384.3862518800532</v>
+        <v>384.312692873685</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17166,28 +17258,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1116597620529011</v>
+        <v>0.1189528926411961</v>
       </c>
       <c r="J6" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009521315783735163</v>
+        <v>0.01087471018249098</v>
       </c>
       <c r="M6" t="n">
-        <v>6.617144750748743</v>
+        <v>6.616051228442252</v>
       </c>
       <c r="N6" t="n">
-        <v>69.27170747607558</v>
+        <v>69.16523832351912</v>
       </c>
       <c r="O6" t="n">
-        <v>8.322962662181993</v>
+        <v>8.316564093633808</v>
       </c>
       <c r="P6" t="n">
-        <v>381.7456204584495</v>
+        <v>381.6728877851335</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17238,28 +17330,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.01514546299569198</v>
+        <v>0.02404521552928454</v>
       </c>
       <c r="J7" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K7" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001713427462207706</v>
+        <v>0.0004345125975478981</v>
       </c>
       <c r="M7" t="n">
-        <v>6.827348957485651</v>
+        <v>6.832740469436587</v>
       </c>
       <c r="N7" t="n">
-        <v>71.22939789304614</v>
+        <v>71.22581874324848</v>
       </c>
       <c r="O7" t="n">
-        <v>8.4397510563432</v>
+        <v>8.439539012484538</v>
       </c>
       <c r="P7" t="n">
-        <v>383.3777195834753</v>
+        <v>383.2888208326081</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17316,28 +17408,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009715849073054861</v>
+        <v>-0.002541450933684208</v>
       </c>
       <c r="J8" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K8" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L8" t="n">
-        <v>6.147626218089286e-07</v>
+        <v>4.255818718434945e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>7.043432917523039</v>
+        <v>7.02031853549185</v>
       </c>
       <c r="N8" t="n">
-        <v>81.5866410639873</v>
+        <v>81.15445921361453</v>
       </c>
       <c r="O8" t="n">
-        <v>9.032532372706299</v>
+        <v>9.008576980501111</v>
       </c>
       <c r="P8" t="n">
-        <v>383.8620704390063</v>
+        <v>383.8971332142229</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17394,28 +17486,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02676748246019775</v>
+        <v>-0.02293726561953557</v>
       </c>
       <c r="J9" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K9" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005115181837955785</v>
+        <v>0.0003797305266683981</v>
       </c>
       <c r="M9" t="n">
-        <v>6.775687756011353</v>
+        <v>6.755454786652456</v>
       </c>
       <c r="N9" t="n">
-        <v>74.5417167886196</v>
+        <v>74.23876363317524</v>
       </c>
       <c r="O9" t="n">
-        <v>8.6337545012943</v>
+        <v>8.61619194500536</v>
       </c>
       <c r="P9" t="n">
-        <v>380.2619680714253</v>
+        <v>380.2238652109554</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17453,7 +17545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35173,6 +35265,110 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.72749232333416,175.68604169195385</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.72758767067039,175.68693290787758</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.727622327968206,175.6878087733151</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.727623528675025,175.68868053315538</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-36.727657491411634,175.68958430599466</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-36.727664304399184,175.69048552462752</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>-36.72772705285736,175.69137398588106</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-36.72768371881383,175.69226313791927</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-36.727489806174994,175.68604196386283</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-36.72752910800757,175.68693923349932</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-36.72755321818836,175.68781134233777</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-36.72756465412929,175.68867781412766</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-36.72759517478896,175.68958225947816</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-36.72759813125007,175.69048418293718</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>-36.72771358215677,175.6913729401075</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>-36.72761181548661,175.69225438666874</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J361"/>
+  <dimension ref="A1:J363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12967,6 +12967,78 @@
       <c r="J361" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>393.0685714285714</v>
+      </c>
+      <c r="C362" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="D362" t="n">
+        <v>403.5676470588235</v>
+      </c>
+      <c r="E362" t="n">
+        <v>389.93</v>
+      </c>
+      <c r="F362" t="n">
+        <v>394.58</v>
+      </c>
+      <c r="G362" t="n">
+        <v>380.94</v>
+      </c>
+      <c r="H362" t="n">
+        <v>381.7426086956522</v>
+      </c>
+      <c r="I362" t="n">
+        <v>381.49</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>386.8233333333333</v>
+      </c>
+      <c r="C363" t="n">
+        <v>389.9153846153847</v>
+      </c>
+      <c r="D363" t="n">
+        <v>395.4898039215686</v>
+      </c>
+      <c r="E363" t="n">
+        <v>393.29</v>
+      </c>
+      <c r="F363" t="n">
+        <v>388.13</v>
+      </c>
+      <c r="G363" t="n">
+        <v>386.7066666666667</v>
+      </c>
+      <c r="H363" t="n">
+        <v>385.6730434782609</v>
+      </c>
+      <c r="I363" t="n">
+        <v>379.4</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12981,7 +13053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16779,6 +16851,26 @@
       </c>
       <c r="B379" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -16952,28 +17044,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1741974786021148</v>
+        <v>0.1791707214520116</v>
       </c>
       <c r="J2" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K2" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02187735605274033</v>
+        <v>0.02333376153355959</v>
       </c>
       <c r="M2" t="n">
-        <v>6.627210662746815</v>
+        <v>6.611239691763947</v>
       </c>
       <c r="N2" t="n">
-        <v>73.24114711014822</v>
+        <v>72.96682557921379</v>
       </c>
       <c r="O2" t="n">
-        <v>8.55810417733672</v>
+        <v>8.54206213857133</v>
       </c>
       <c r="P2" t="n">
-        <v>381.1609650706629</v>
+        <v>381.111001728468</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17030,28 +17122,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1869916996900337</v>
+        <v>0.1956777210784916</v>
       </c>
       <c r="J3" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K3" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02083700631158292</v>
+        <v>0.02294509106682208</v>
       </c>
       <c r="M3" t="n">
-        <v>7.64890606744637</v>
+        <v>7.639464939040177</v>
       </c>
       <c r="N3" t="n">
-        <v>88.16307928176313</v>
+        <v>88.03408016131641</v>
       </c>
       <c r="O3" t="n">
-        <v>9.389519651279459</v>
+        <v>9.382647822513452</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3700222437725</v>
+        <v>381.2829893319454</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17102,28 +17194,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1692949746607702</v>
+        <v>0.1785741462125625</v>
       </c>
       <c r="J4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K4" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01778255369921034</v>
+        <v>0.01987932542951154</v>
       </c>
       <c r="M4" t="n">
-        <v>7.750295100505689</v>
+        <v>7.744150321162956</v>
       </c>
       <c r="N4" t="n">
-        <v>84.20677791876707</v>
+        <v>84.16250288097396</v>
       </c>
       <c r="O4" t="n">
-        <v>9.176425116501909</v>
+        <v>9.174012365425172</v>
       </c>
       <c r="P4" t="n">
-        <v>387.3353899162381</v>
+        <v>387.242018197001</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17180,28 +17272,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2433767116458646</v>
+        <v>0.2445847070249135</v>
       </c>
       <c r="J5" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K5" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0465055054006327</v>
+        <v>0.04746653715341176</v>
       </c>
       <c r="M5" t="n">
-        <v>6.692886117554956</v>
+        <v>6.662414103630697</v>
       </c>
       <c r="N5" t="n">
-        <v>65.76188763969854</v>
+        <v>65.39380270675539</v>
       </c>
       <c r="O5" t="n">
-        <v>8.109370360249835</v>
+        <v>8.086643475927167</v>
       </c>
       <c r="P5" t="n">
-        <v>384.312692873685</v>
+        <v>384.3006183632935</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17258,28 +17350,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1189528926411961</v>
+        <v>0.1264990563347941</v>
       </c>
       <c r="J6" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01087471018249098</v>
+        <v>0.01237101577045718</v>
       </c>
       <c r="M6" t="n">
-        <v>6.616051228442252</v>
+        <v>6.616088950218869</v>
       </c>
       <c r="N6" t="n">
-        <v>69.16523832351912</v>
+        <v>69.07371416600276</v>
       </c>
       <c r="O6" t="n">
-        <v>8.316564093633808</v>
+        <v>8.31105974987563</v>
       </c>
       <c r="P6" t="n">
-        <v>381.6728877851335</v>
+        <v>381.5974303049403</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17330,28 +17422,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.02404521552928454</v>
+        <v>0.02395489106871692</v>
       </c>
       <c r="J7" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K7" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004345125975478981</v>
+        <v>0.0004362269032193167</v>
       </c>
       <c r="M7" t="n">
-        <v>6.832740469436587</v>
+        <v>6.80922500336874</v>
       </c>
       <c r="N7" t="n">
-        <v>71.22581874324848</v>
+        <v>70.85137105744809</v>
       </c>
       <c r="O7" t="n">
-        <v>8.439539012484538</v>
+        <v>8.417325647582377</v>
       </c>
       <c r="P7" t="n">
-        <v>383.2888208326081</v>
+        <v>383.2897077278209</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17408,28 +17500,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.002541450933684208</v>
+        <v>-0.002682707537855304</v>
       </c>
       <c r="J8" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K8" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L8" t="n">
-        <v>4.255818718434945e-06</v>
+        <v>4.799058814564106e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>7.02031853549185</v>
+        <v>6.990272406388109</v>
       </c>
       <c r="N8" t="n">
-        <v>81.15445921361453</v>
+        <v>80.69447638475819</v>
       </c>
       <c r="O8" t="n">
-        <v>9.008576980501111</v>
+        <v>8.983010429959334</v>
       </c>
       <c r="P8" t="n">
-        <v>383.8971332142229</v>
+        <v>383.8985355131433</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17486,28 +17578,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02293726561953557</v>
+        <v>-0.02196652082600193</v>
       </c>
       <c r="J9" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K9" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003797305266683981</v>
+        <v>0.0003527102010706384</v>
       </c>
       <c r="M9" t="n">
-        <v>6.755454786652456</v>
+        <v>6.719491082064587</v>
       </c>
       <c r="N9" t="n">
-        <v>74.23876363317524</v>
+        <v>73.79119836483959</v>
       </c>
       <c r="O9" t="n">
-        <v>8.61619194500536</v>
+        <v>8.59018034530356</v>
       </c>
       <c r="P9" t="n">
-        <v>380.2238652109554</v>
+        <v>380.2141907976176</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17545,7 +17637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J361"/>
+  <dimension ref="A1:J363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35369,6 +35461,110 @@
         </is>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-36.727483476951335,175.68604264755922</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-36.72752176955293,175.68694002615896</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-36.72753914834604,175.68781186535688</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-36.727656386792745,175.68868205065863</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-36.72759346378342,175.68958220328776</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-36.7277253734481,175.6904867628352</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>-36.727712600976886,175.6913728639354</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>-36.7276587947181,175.69226010444106</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-36.727539525410506,175.68603659308104</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-36.72758714600196,175.68693296454947</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-36.72761188461061,175.68780916152684</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-36.727626139320016,175.68868065372405</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-36.72765154791877,175.68958411080638</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-36.72767343173003,175.69048570968874</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>-36.72767726286475,175.6913701205273</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-36.727677532617435,175.6922623850054</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J363"/>
+  <dimension ref="A1:J364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13037,6 +13037,42 @@
         <v>379.4</v>
       </c>
       <c r="J363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>383.6890476190476</v>
+      </c>
+      <c r="C364" t="n">
+        <v>387.3307692307693</v>
+      </c>
+      <c r="D364" t="n">
+        <v>394.6780392156863</v>
+      </c>
+      <c r="E364" t="n">
+        <v>391.92</v>
+      </c>
+      <c r="F364" t="n">
+        <v>388.74</v>
+      </c>
+      <c r="G364" t="n">
+        <v>387.5666666666667</v>
+      </c>
+      <c r="H364" t="n">
+        <v>385.1378260869565</v>
+      </c>
+      <c r="I364" t="n">
+        <v>378.84</v>
+      </c>
+      <c r="J364" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13053,7 +13089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16871,6 +16907,16 @@
       </c>
       <c r="B381" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -17044,28 +17090,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1791707214520116</v>
+        <v>0.1780113980371346</v>
       </c>
       <c r="J2" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02333376153355959</v>
+        <v>0.02317015760667696</v>
       </c>
       <c r="M2" t="n">
-        <v>6.611239691763947</v>
+        <v>6.597728400675066</v>
       </c>
       <c r="N2" t="n">
-        <v>72.96682557921379</v>
+        <v>72.75798382489097</v>
       </c>
       <c r="O2" t="n">
-        <v>8.54206213857133</v>
+        <v>8.529829061879902</v>
       </c>
       <c r="P2" t="n">
-        <v>381.111001728468</v>
+        <v>381.122685922979</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17122,28 +17168,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1956777210784916</v>
+        <v>0.1962772482022086</v>
       </c>
       <c r="J3" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02294509106682208</v>
+        <v>0.02322062941257874</v>
       </c>
       <c r="M3" t="n">
-        <v>7.639464939040177</v>
+        <v>7.618789045753432</v>
       </c>
       <c r="N3" t="n">
-        <v>88.03408016131641</v>
+        <v>87.76966181844439</v>
       </c>
       <c r="O3" t="n">
-        <v>9.382647822513452</v>
+        <v>9.36854640904577</v>
       </c>
       <c r="P3" t="n">
-        <v>381.2829893319454</v>
+        <v>381.2769642308942</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17194,28 +17240,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1785741462125625</v>
+        <v>0.1802525613764964</v>
       </c>
       <c r="J4" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01987932542951154</v>
+        <v>0.02036422263484328</v>
       </c>
       <c r="M4" t="n">
-        <v>7.744150321162956</v>
+        <v>7.728097303949946</v>
       </c>
       <c r="N4" t="n">
-        <v>84.16250288097396</v>
+        <v>83.93188733838207</v>
       </c>
       <c r="O4" t="n">
-        <v>9.174012365425172</v>
+        <v>9.161434786013709</v>
       </c>
       <c r="P4" t="n">
-        <v>387.242018197001</v>
+        <v>387.2250792595159</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17272,28 +17318,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2445847070249135</v>
+        <v>0.2453424778367043</v>
       </c>
       <c r="J5" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04746653715341176</v>
+        <v>0.04801301065088703</v>
       </c>
       <c r="M5" t="n">
-        <v>6.662414103630697</v>
+        <v>6.646202584061615</v>
       </c>
       <c r="N5" t="n">
-        <v>65.39380270675539</v>
+        <v>65.20504372584162</v>
       </c>
       <c r="O5" t="n">
-        <v>8.086643475927167</v>
+        <v>8.074964007711838</v>
       </c>
       <c r="P5" t="n">
-        <v>384.3006183632935</v>
+        <v>384.2930298137447</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17350,28 +17396,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1264990563347941</v>
+        <v>0.1287071708922445</v>
       </c>
       <c r="J6" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01237101577045718</v>
+        <v>0.01286847686320547</v>
       </c>
       <c r="M6" t="n">
-        <v>6.616088950218869</v>
+        <v>6.607964324624882</v>
       </c>
       <c r="N6" t="n">
-        <v>69.07371416600276</v>
+        <v>68.91478866840833</v>
       </c>
       <c r="O6" t="n">
-        <v>8.31105974987563</v>
+        <v>8.301493158968954</v>
       </c>
       <c r="P6" t="n">
-        <v>381.5974303049403</v>
+        <v>381.5752847274318</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17422,28 +17468,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.02395489106871692</v>
+        <v>0.02605681109643525</v>
       </c>
       <c r="J7" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K7" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004362269032193167</v>
+        <v>0.0005189314931151046</v>
       </c>
       <c r="M7" t="n">
-        <v>6.80922500336874</v>
+        <v>6.799930969295195</v>
       </c>
       <c r="N7" t="n">
-        <v>70.85137105744809</v>
+        <v>70.68056648706879</v>
       </c>
       <c r="O7" t="n">
-        <v>8.417325647582377</v>
+        <v>8.407173513557858</v>
       </c>
       <c r="P7" t="n">
-        <v>383.2897077278209</v>
+        <v>383.2685930220014</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17500,28 +17546,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.002682707537855304</v>
+        <v>-0.001929191938467335</v>
       </c>
       <c r="J8" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K8" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L8" t="n">
-        <v>4.799058814564106e-06</v>
+        <v>2.496726682843509e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>6.990272406388109</v>
+        <v>6.973148284358209</v>
       </c>
       <c r="N8" t="n">
-        <v>80.69447638475819</v>
+        <v>80.46005914310135</v>
       </c>
       <c r="O8" t="n">
-        <v>8.983010429959334</v>
+        <v>8.969953129370372</v>
       </c>
       <c r="P8" t="n">
-        <v>383.8985355131433</v>
+        <v>383.8909695473031</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17578,28 +17624,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02196652082600193</v>
+        <v>-0.02245147282667461</v>
       </c>
       <c r="J9" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K9" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003527102010706384</v>
+        <v>0.0003707826228372957</v>
       </c>
       <c r="M9" t="n">
-        <v>6.719491082064587</v>
+        <v>6.70163890918641</v>
       </c>
       <c r="N9" t="n">
-        <v>73.79119836483959</v>
+        <v>73.56614988232786</v>
       </c>
       <c r="O9" t="n">
-        <v>8.59018034530356</v>
+        <v>8.577071171578785</v>
       </c>
       <c r="P9" t="n">
-        <v>380.2141907976176</v>
+        <v>380.2190400839535</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17637,7 +17683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J363"/>
+  <dimension ref="A1:J364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35565,6 +35611,58 @@
         </is>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-36.72756765434349,175.68603355452927</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-36.7276103418697,175.68693045905553</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-36.72761919407813,175.68780888981146</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-36.72763847236695,175.68868122330727</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-36.72764605469047,175.68958393040515</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-36.727665685508455,175.6904855526302</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>-36.727682074946195,175.69137049410404</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>-36.72768255329857,175.69226299606592</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -13089,7 +13089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16917,6 +16917,16 @@
       </c>
       <c r="B382" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J364"/>
+  <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13075,6 +13075,72 @@
       <c r="J364" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>385.3752380952381</v>
+      </c>
+      <c r="C365" t="n">
+        <v>391.6115384615384</v>
+      </c>
+      <c r="D365" t="n">
+        <v>398.5213725490196</v>
+      </c>
+      <c r="E365" t="n">
+        <v>395.82</v>
+      </c>
+      <c r="F365" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="G365" t="n">
+        <v>390.3433333333333</v>
+      </c>
+      <c r="H365" t="n">
+        <v>387.0108695652174</v>
+      </c>
+      <c r="I365" t="n">
+        <v>383.01</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="n">
+        <v>392.79</v>
+      </c>
+      <c r="F366" t="n">
+        <v>380.61</v>
+      </c>
+      <c r="G366" t="n">
+        <v>386.0366666666667</v>
+      </c>
+      <c r="H366" t="n">
+        <v>385.095652173913</v>
+      </c>
+      <c r="I366" t="n">
+        <v>374.72</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13089,7 +13155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16927,6 +16993,26 @@
       </c>
       <c r="B383" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -17100,28 +17186,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1780113980371346</v>
+        <v>0.1778180919391861</v>
       </c>
       <c r="J2" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02317015760667696</v>
+        <v>0.02325688149124272</v>
       </c>
       <c r="M2" t="n">
-        <v>6.597728400675066</v>
+        <v>6.578868268333872</v>
       </c>
       <c r="N2" t="n">
-        <v>72.75798382489097</v>
+        <v>72.53851022394835</v>
       </c>
       <c r="O2" t="n">
-        <v>8.529829061879902</v>
+        <v>8.516954280959148</v>
       </c>
       <c r="P2" t="n">
-        <v>381.122685922979</v>
+        <v>381.124644886855</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17178,28 +17264,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1962772482022086</v>
+        <v>0.1993670392215755</v>
       </c>
       <c r="J3" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02322062941257874</v>
+        <v>0.02406247456431343</v>
       </c>
       <c r="M3" t="n">
-        <v>7.618789045753432</v>
+        <v>7.608632400585915</v>
       </c>
       <c r="N3" t="n">
-        <v>87.76966181844439</v>
+        <v>87.58722705175279</v>
       </c>
       <c r="O3" t="n">
-        <v>9.36854640904577</v>
+        <v>9.358804787565173</v>
       </c>
       <c r="P3" t="n">
-        <v>381.2769642308942</v>
+        <v>381.2457457174328</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17250,28 +17336,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1802525613764964</v>
+        <v>0.1841704545052425</v>
       </c>
       <c r="J4" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02036422263484328</v>
+        <v>0.02133693722018726</v>
       </c>
       <c r="M4" t="n">
-        <v>7.728097303949946</v>
+        <v>7.721815151342413</v>
       </c>
       <c r="N4" t="n">
-        <v>83.93188733838207</v>
+        <v>83.81066696814889</v>
       </c>
       <c r="O4" t="n">
-        <v>9.161434786013709</v>
+        <v>9.154816599372644</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2250792595159</v>
+        <v>387.185329365591</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17328,28 +17414,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2453424778367043</v>
+        <v>0.2494783530935601</v>
       </c>
       <c r="J5" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04801301065088703</v>
+        <v>0.05006128385889375</v>
       </c>
       <c r="M5" t="n">
-        <v>6.646202584061615</v>
+        <v>6.626063155460695</v>
       </c>
       <c r="N5" t="n">
-        <v>65.20504372584162</v>
+        <v>64.91255141768855</v>
       </c>
       <c r="O5" t="n">
-        <v>8.074964007711838</v>
+        <v>8.056832592134985</v>
       </c>
       <c r="P5" t="n">
-        <v>384.2930298137447</v>
+        <v>384.2513597886756</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17406,28 +17492,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1287071708922445</v>
+        <v>0.1310983488973554</v>
       </c>
       <c r="J6" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01286847686320547</v>
+        <v>0.01345184975737734</v>
       </c>
       <c r="M6" t="n">
-        <v>6.607964324624882</v>
+        <v>6.606751483018522</v>
       </c>
       <c r="N6" t="n">
-        <v>68.91478866840833</v>
+        <v>68.77918203035529</v>
       </c>
       <c r="O6" t="n">
-        <v>8.301493158968954</v>
+        <v>8.293321531832422</v>
       </c>
       <c r="P6" t="n">
-        <v>381.5752847274318</v>
+        <v>381.551227310384</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17478,28 +17564,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.02605681109643525</v>
+        <v>0.03090229702443616</v>
       </c>
       <c r="J7" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K7" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005189314931151046</v>
+        <v>0.0007372580022535491</v>
       </c>
       <c r="M7" t="n">
-        <v>6.799930969295195</v>
+        <v>6.784992317156852</v>
       </c>
       <c r="N7" t="n">
-        <v>70.68056648706879</v>
+        <v>70.39555551682696</v>
       </c>
       <c r="O7" t="n">
-        <v>8.407173513557858</v>
+        <v>8.390205928153788</v>
       </c>
       <c r="P7" t="n">
-        <v>383.2685930220014</v>
+        <v>383.2196334724923</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17556,28 +17642,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.001929191938467335</v>
+        <v>0.0006024586128464726</v>
       </c>
       <c r="J8" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K8" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L8" t="n">
-        <v>2.496726682843509e-06</v>
+        <v>2.463783184136759e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>6.973148284358209</v>
+        <v>6.943952204657888</v>
       </c>
       <c r="N8" t="n">
-        <v>80.46005914310135</v>
+        <v>80.01912839751735</v>
       </c>
       <c r="O8" t="n">
-        <v>8.969953129370372</v>
+        <v>8.945341156016205</v>
       </c>
       <c r="P8" t="n">
-        <v>383.8909695473031</v>
+        <v>383.8653997076674</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17634,28 +17720,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02245147282667461</v>
+        <v>-0.02338301429897701</v>
       </c>
       <c r="J9" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K9" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003707826228372957</v>
+        <v>0.0004067347724857617</v>
       </c>
       <c r="M9" t="n">
-        <v>6.70163890918641</v>
+        <v>6.686626046770886</v>
       </c>
       <c r="N9" t="n">
-        <v>73.56614988232786</v>
+        <v>73.22486331542548</v>
       </c>
       <c r="O9" t="n">
-        <v>8.577071171578785</v>
+        <v>8.557152757513768</v>
       </c>
       <c r="P9" t="n">
-        <v>380.2190400839535</v>
+        <v>380.2284664879286</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17693,7 +17779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J364"/>
+  <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35673,6 +35759,98 @@
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-36.7275525214733,175.68603518921677</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-36.72757192371372,175.68693460877924</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-36.72758458710392,175.68781017625898</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-36.72760336369309,175.6886796018668</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-36.72760363976376,175.6895825374728</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-36.727640675420886,175.6904850455387</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>-36.72766523461568,175.69136918673757</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>-36.72764516715487,175.69225844584972</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-36.72763064043204,175.6886808616011</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-36.727719267716026,175.68958633477317</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-36.727679466577065,175.69048583204835</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-36.727682454127276,175.69137052354102</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>-36.72771949116663,175.6922674917286</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J366"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13141,6 +13141,42 @@
       <c r="J366" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>388.55</v>
+      </c>
+      <c r="C367" t="n">
+        <v>374.3961538461539</v>
+      </c>
+      <c r="D367" t="n">
+        <v>381.7311764705883</v>
+      </c>
+      <c r="E367" t="n">
+        <v>390.86</v>
+      </c>
+      <c r="F367" t="n">
+        <v>376.4</v>
+      </c>
+      <c r="G367" t="n">
+        <v>383.73</v>
+      </c>
+      <c r="H367" t="n">
+        <v>378.8482608695652</v>
+      </c>
+      <c r="I367" t="n">
+        <v>389.87</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17013,6 +17049,16 @@
       </c>
       <c r="B385" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -17186,28 +17232,28 @@
         <v>0.1174</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1778180919391861</v>
+        <v>0.1794435440562394</v>
       </c>
       <c r="J2" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02325688149124272</v>
+        <v>0.02380786038985028</v>
       </c>
       <c r="M2" t="n">
-        <v>6.578868268333872</v>
+        <v>6.566994075196974</v>
       </c>
       <c r="N2" t="n">
-        <v>72.53851022394835</v>
+        <v>72.34365552495586</v>
       </c>
       <c r="O2" t="n">
-        <v>8.516954280959148</v>
+        <v>8.505507364346695</v>
       </c>
       <c r="P2" t="n">
-        <v>381.124644886855</v>
+        <v>381.1080481987517</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17264,28 +17310,28 @@
         <v>0.1562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1993670392215755</v>
+        <v>0.1922895407856746</v>
       </c>
       <c r="J3" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02406247456431343</v>
+        <v>0.02245170460293544</v>
       </c>
       <c r="M3" t="n">
-        <v>7.608632400585915</v>
+        <v>7.628518178404295</v>
       </c>
       <c r="N3" t="n">
-        <v>87.58722705175279</v>
+        <v>87.75504335415911</v>
       </c>
       <c r="O3" t="n">
-        <v>9.358804787565173</v>
+        <v>9.367766188059942</v>
       </c>
       <c r="P3" t="n">
-        <v>381.2457457174328</v>
+        <v>381.3177818568244</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17336,28 +17382,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1841704545052425</v>
+        <v>0.1781116994542717</v>
       </c>
       <c r="J4" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02133693722018726</v>
+        <v>0.02003478997930275</v>
       </c>
       <c r="M4" t="n">
-        <v>7.721815151342413</v>
+        <v>7.733700864837674</v>
       </c>
       <c r="N4" t="n">
-        <v>83.81066696814889</v>
+        <v>83.87052540943233</v>
       </c>
       <c r="O4" t="n">
-        <v>9.154816599372644</v>
+        <v>9.158085247988923</v>
       </c>
       <c r="P4" t="n">
-        <v>387.185329365591</v>
+        <v>387.2472467004807</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17414,28 +17460,28 @@
         <v>0.1452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2494783530935601</v>
+        <v>0.2495567330872965</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05006128385889375</v>
+        <v>0.05037744304593716</v>
       </c>
       <c r="M5" t="n">
-        <v>6.626063155460695</v>
+        <v>6.606930027565626</v>
       </c>
       <c r="N5" t="n">
-        <v>64.91255141768855</v>
+        <v>64.72168841841143</v>
       </c>
       <c r="O5" t="n">
-        <v>8.056832592134985</v>
+        <v>8.044979081291103</v>
       </c>
       <c r="P5" t="n">
-        <v>384.2513597886756</v>
+        <v>384.2505646379236</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17492,28 +17538,28 @@
         <v>0.1496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1310983488973554</v>
+        <v>0.1262604605845478</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01345184975737734</v>
+        <v>0.01252619761255813</v>
       </c>
       <c r="M6" t="n">
-        <v>6.606751483018522</v>
+        <v>6.61245162805205</v>
       </c>
       <c r="N6" t="n">
-        <v>68.77918203035529</v>
+        <v>68.78993320522467</v>
       </c>
       <c r="O6" t="n">
-        <v>8.293321531832422</v>
+        <v>8.293969689191339</v>
       </c>
       <c r="P6" t="n">
-        <v>381.551227310384</v>
+        <v>381.6003685341839</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17564,28 +17610,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.03090229702443616</v>
+        <v>0.03073563209541124</v>
       </c>
       <c r="J7" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007372580022535491</v>
+        <v>0.0007338046974594281</v>
       </c>
       <c r="M7" t="n">
-        <v>6.784992317156852</v>
+        <v>6.765873202397536</v>
       </c>
       <c r="N7" t="n">
-        <v>70.39555551682696</v>
+        <v>70.18875661371955</v>
       </c>
       <c r="O7" t="n">
-        <v>8.390205928153788</v>
+        <v>8.377873036380985</v>
       </c>
       <c r="P7" t="n">
-        <v>383.2196334724923</v>
+        <v>383.2213290141967</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17642,28 +17688,28 @@
         <v>0.1387</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006024586128464726</v>
+        <v>-0.002289542239404707</v>
       </c>
       <c r="J8" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L8" t="n">
-        <v>2.463783184136759e-07</v>
+        <v>3.576969744623071e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>6.943952204657888</v>
+        <v>6.939448098887731</v>
       </c>
       <c r="N8" t="n">
-        <v>80.01912839751735</v>
+        <v>79.85759932459577</v>
       </c>
       <c r="O8" t="n">
-        <v>8.945341156016205</v>
+        <v>8.936307924674248</v>
       </c>
       <c r="P8" t="n">
-        <v>383.8653997076674</v>
+        <v>383.8948058268385</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17720,28 +17766,28 @@
         <v>0.1117</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02338301429897701</v>
+        <v>-0.01727210087440443</v>
       </c>
       <c r="J9" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004067347724857617</v>
+        <v>0.0002224256503001731</v>
       </c>
       <c r="M9" t="n">
-        <v>6.686626046770886</v>
+        <v>6.693272191104065</v>
       </c>
       <c r="N9" t="n">
-        <v>73.22486331542548</v>
+        <v>73.31878151494708</v>
       </c>
       <c r="O9" t="n">
-        <v>8.557152757513768</v>
+        <v>8.562638700479372</v>
       </c>
       <c r="P9" t="n">
-        <v>380.2284664879286</v>
+        <v>380.1665879711076</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17779,7 +17825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J366"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35851,6 +35897,58 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-36.72752402928299,175.68603826700755</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-36.72772642476029,175.68691792038456</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-36.727735773022076,175.68780455621268</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-36.72764801472441,175.6886816640069</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-36.72775717999576,175.68958757984302</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-36.72770024326434,175.69048625330666</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>-36.72773862374352,175.69137488416638</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>-36.72758366380929,175.69225096037425</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -17223,13 +17223,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105</v>
+        <v>0.155</v>
       </c>
       <c r="G2" t="n">
-        <v>0.096</v>
+        <v>0.1125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1174</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>0.179477383481677</v>
@@ -17301,13 +17301,13 @@
         <v>0.1429013244874983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1116</v>
+        <v>0.1555</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1562</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.1923207427975309</v>
@@ -17378,9 +17378,15 @@
       <c r="E4" t="n">
         <v>0.2858026489749967</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1471</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I4" t="n">
         <v>0.1780904196278402</v>
       </c>
@@ -17451,13 +17457,13 @@
         <v>0.4285389211748984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1061</v>
+        <v>0.1456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1452</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.2495567330872964</v>
@@ -17529,13 +17535,13 @@
         <v>0.5714402456578731</v>
       </c>
       <c r="F6" t="n">
-        <v>0.125</v>
+        <v>0.155</v>
       </c>
       <c r="G6" t="n">
-        <v>0.108</v>
+        <v>0.1299</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1496</v>
+        <v>0.1865</v>
       </c>
       <c r="I6" t="n">
         <v>0.1262604605845478</v>
@@ -17606,9 +17612,15 @@
       <c r="E7" t="n">
         <v>0.7143282919812194</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1441</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I7" t="n">
         <v>0.03073518299084632</v>
       </c>
@@ -17679,13 +17691,13 @@
         <v>0.8570986755110266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0959</v>
+        <v>0.1111</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1387</v>
+        <v>0.1598</v>
       </c>
       <c r="I8" t="n">
         <v>-0.002278423252306718</v>
@@ -17757,13 +17769,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.1078</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1117</v>
+        <v>0.1569</v>
       </c>
       <c r="I9" t="n">
         <v>-0.01727210087440454</v>

--- a/data/nzd0160/nzd0160.xlsx
+++ b/data/nzd0160/nzd0160.xlsx
@@ -507,7 +507,7 @@
         <v>391.8</v>
       </c>
       <c r="F2" t="n">
-        <v>376.22</v>
+        <v>376.07</v>
       </c>
       <c r="G2" t="n">
         <v>386.38</v>
@@ -543,7 +543,7 @@
         <v>384.31</v>
       </c>
       <c r="F3" t="n">
-        <v>386.92</v>
+        <v>387.04</v>
       </c>
       <c r="G3" t="n">
         <v>375.54</v>
@@ -579,7 +579,7 @@
         <v>379.7</v>
       </c>
       <c r="F4" t="n">
-        <v>374.44</v>
+        <v>374.43</v>
       </c>
       <c r="G4" t="n">
         <v>381.91</v>
@@ -615,7 +615,7 @@
         <v>385.46</v>
       </c>
       <c r="F5" t="n">
-        <v>383.47</v>
+        <v>383.39</v>
       </c>
       <c r="G5" t="n">
         <v>380.08</v>
@@ -651,7 +651,7 @@
         <v>392.08</v>
       </c>
       <c r="F6" t="n">
-        <v>389.19</v>
+        <v>389.09</v>
       </c>
       <c r="G6" t="n">
         <v>381.54</v>
@@ -687,7 +687,7 @@
         <v>392.06</v>
       </c>
       <c r="F7" t="n">
-        <v>388.64</v>
+        <v>388.5</v>
       </c>
       <c r="G7" t="n">
         <v>389.88</v>
@@ -723,7 +723,7 @@
         <v>382.58</v>
       </c>
       <c r="F8" t="n">
-        <v>379.72</v>
+        <v>379.84</v>
       </c>
       <c r="G8" t="n">
         <v>377.17</v>
@@ -759,7 +759,7 @@
         <v>373.68</v>
       </c>
       <c r="F9" t="n">
-        <v>363.93</v>
+        <v>363.89</v>
       </c>
       <c r="G9" t="n">
         <v>362.97</v>
@@ -815,7 +815,7 @@
         <v>395.2</v>
       </c>
       <c r="F11" t="n">
-        <v>390.3</v>
+        <v>390.26</v>
       </c>
       <c r="G11" t="n">
         <v>381.64</v>
@@ -851,7 +851,7 @@
         <v>398.45</v>
       </c>
       <c r="F12" t="n">
-        <v>391.66</v>
+        <v>391.64</v>
       </c>
       <c r="G12" t="n">
         <v>393.31</v>
@@ -887,7 +887,7 @@
         <v>399.86</v>
       </c>
       <c r="F13" t="n">
-        <v>396.65</v>
+        <v>396.74</v>
       </c>
       <c r="G13" t="n">
         <v>393.81</v>
@@ -923,7 +923,7 @@
         <v>384.57</v>
       </c>
       <c r="F14" t="n">
-        <v>378.18</v>
+        <v>378.12</v>
       </c>
       <c r="G14" t="n">
         <v>380.68</v>
@@ -959,7 +959,7 @@
         <v>385.4</v>
       </c>
       <c r="F15" t="n">
-        <v>374.81</v>
+        <v>374.72</v>
       </c>
       <c r="G15" t="n">
         <v>382.67</v>
@@ -995,7 +995,7 @@
         <v>384.87</v>
       </c>
       <c r="F16" t="n">
-        <v>385.62</v>
+        <v>385.79</v>
       </c>
       <c r="G16" t="n">
         <v>387.17</v>
@@ -1075,7 +1075,7 @@
         <v>384.83</v>
       </c>
       <c r="F19" t="n">
-        <v>391.9</v>
+        <v>392.04</v>
       </c>
       <c r="G19" t="n">
         <v>375.82</v>
@@ -1111,7 +1111,7 @@
         <v>383.06</v>
       </c>
       <c r="F20" t="n">
-        <v>383.09</v>
+        <v>383.01</v>
       </c>
       <c r="G20" t="n">
         <v>380.45</v>
@@ -1147,7 +1147,7 @@
         <v>380.53</v>
       </c>
       <c r="F21" t="n">
-        <v>388.53</v>
+        <v>388.45</v>
       </c>
       <c r="G21" t="n">
         <v>389.73</v>
@@ -1183,7 +1183,7 @@
         <v>390.74</v>
       </c>
       <c r="F22" t="n">
-        <v>388.5</v>
+        <v>388.33</v>
       </c>
       <c r="G22" t="n">
         <v>389.04</v>
@@ -1219,7 +1219,7 @@
         <v>375.34</v>
       </c>
       <c r="F23" t="n">
-        <v>373.72</v>
+        <v>373.75</v>
       </c>
       <c r="G23" t="n">
         <v>373.68</v>
@@ -1255,7 +1255,7 @@
         <v>394.56</v>
       </c>
       <c r="F24" t="n">
-        <v>382.23</v>
+        <v>382.3</v>
       </c>
       <c r="G24" t="n">
         <v>393.09</v>
@@ -1291,7 +1291,7 @@
         <v>393.29</v>
       </c>
       <c r="F25" t="n">
-        <v>382.22</v>
+        <v>382.13</v>
       </c>
       <c r="G25" t="n">
         <v>370.75</v>
@@ -1323,7 +1323,7 @@
         <v>393.38</v>
       </c>
       <c r="F26" t="n">
-        <v>389.6</v>
+        <v>389.51</v>
       </c>
       <c r="G26" t="n">
         <v>384.69</v>
@@ -1359,7 +1359,7 @@
         <v>392.22</v>
       </c>
       <c r="F27" t="n">
-        <v>381.89</v>
+        <v>381.75</v>
       </c>
       <c r="G27" t="n">
         <v>388.09</v>
@@ -1395,7 +1395,7 @@
         <v>393.39</v>
       </c>
       <c r="F28" t="n">
-        <v>386.09</v>
+        <v>386.04</v>
       </c>
       <c r="G28" t="n">
         <v>388.47</v>
@@ -1431,7 +1431,7 @@
         <v>398.45</v>
       </c>
       <c r="F29" t="n">
-        <v>391.69</v>
+        <v>391.58</v>
       </c>
       <c r="G29" t="n">
         <v>393.96</v>
@@ -1467,7 +1467,7 @@
         <v>394.12</v>
       </c>
       <c r="F30" t="n">
-        <v>381.86</v>
+        <v>382.05</v>
       </c>
       <c r="G30" t="n">
         <v>380.78</v>
@@ -1503,7 +1503,7 @@
         <v>386.28</v>
       </c>
       <c r="F31" t="n">
-        <v>382.15</v>
+        <v>381.99</v>
       </c>
       <c r="G31" t="n">
         <v>379.32</v>
@@ -1539,7 +1539,7 @@
         <v>395</v>
       </c>
       <c r="F32" t="n">
-        <v>390.06</v>
+        <v>389.92</v>
       </c>
       <c r="G32" t="n">
         <v>390.36</v>
@@ -1575,7 +1575,7 @@
         <v>390.36</v>
       </c>
       <c r="F33" t="n">
-        <v>394.29</v>
+        <v>394.35</v>
       </c>
       <c r="G33" t="n">
         <v>393.99</v>
@@ -1611,7 +1611,7 @@
         <v>392.93</v>
       </c>
       <c r="F34" t="n">
-        <v>384.02</v>
+        <v>384.04</v>
       </c>
       <c r="G34" t="n">
         <v>392.58</v>
@@ -1647,7 +1647,7 @@
         <v>371.56</v>
       </c>
       <c r="F35" t="n">
-        <v>370.63</v>
+        <v>370.55</v>
       </c>
       <c r="G35" t="n">
         <v>367.67</v>
@@ -1683,7 +1683,7 @@
         <v>387.99</v>
       </c>
       <c r="F36" t="n">
-        <v>377.75</v>
+        <v>377.69</v>
       </c>
       <c r="G36" t="n">
         <v>388.4</v>
@@ -1713,7 +1713,7 @@
         <v>393.79</v>
       </c>
       <c r="F37" t="n">
-        <v>389.71</v>
+        <v>389.59</v>
       </c>
       <c r="G37" t="n">
         <v>391.39</v>
@@ -1749,7 +1749,7 @@
         <v>397.43</v>
       </c>
       <c r="F38" t="n">
-        <v>393.67</v>
+        <v>393.63</v>
       </c>
       <c r="G38" t="n">
         <v>395.44</v>
@@ -1783,7 +1783,7 @@
         <v>368.72</v>
       </c>
       <c r="F39" t="n">
-        <v>366.12</v>
+        <v>366.13</v>
       </c>
       <c r="G39" t="n">
         <v>364.88</v>
@@ -1819,7 +1819,7 @@
         <v>387.79</v>
       </c>
       <c r="F40" t="n">
-        <v>388.7</v>
+        <v>388.78</v>
       </c>
       <c r="G40" t="n">
         <v>390.62</v>
@@ -1855,7 +1855,7 @@
         <v>384.21</v>
       </c>
       <c r="F41" t="n">
-        <v>380.51</v>
+        <v>380.44</v>
       </c>
       <c r="G41" t="n">
         <v>378.64</v>
@@ -1891,7 +1891,7 @@
         <v>384.24</v>
       </c>
       <c r="F42" t="n">
-        <v>383.82</v>
+        <v>383.74</v>
       </c>
       <c r="G42" t="n">
         <v>384.37</v>
@@ -1921,7 +1921,7 @@
         <v>374.86</v>
       </c>
       <c r="F43" t="n">
-        <v>376.02</v>
+        <v>376.17</v>
       </c>
       <c r="G43" t="n">
         <v>374.31</v>
@@ -1957,7 +1957,7 @@
         <v>390.84</v>
       </c>
       <c r="F44" t="n">
-        <v>393.03</v>
+        <v>392.92</v>
       </c>
       <c r="G44" t="n">
         <v>399.07</v>
@@ -1993,7 +1993,7 @@
         <v>380.62</v>
       </c>
       <c r="F45" t="n">
-        <v>385.17</v>
+        <v>385.15</v>
       </c>
       <c r="G45" t="n">
         <v>383.64</v>
@@ -2029,7 +2029,7 @@
         <v>396.85</v>
       </c>
       <c r="F46" t="n">
-        <v>389.17</v>
+        <v>389.15</v>
       </c>
       <c r="G46" t="n">
         <v>392.14</v>
@@ -2065,7 +2065,7 @@
         <v>381.85</v>
       </c>
       <c r="F47" t="n">
-        <v>390.87</v>
+        <v>390.95</v>
       </c>
       <c r="G47" t="n">
         <v>385.28</v>
@@ -2095,7 +2095,7 @@
         <v>378.85</v>
       </c>
       <c r="F48" t="n">
-        <v>384.78</v>
+        <v>384.69</v>
       </c>
       <c r="G48" t="n">
         <v>386.92</v>
@@ -2125,7 +2125,7 @@
         <v>376.1</v>
       </c>
       <c r="F49" t="n">
-        <v>379.23</v>
+        <v>379.41</v>
       </c>
       <c r="G49" t="n">
         <v>382.3</v>
@@ -2161,7 +2161,7 @@
         <v>400.66</v>
       </c>
       <c r="F50" t="n">
-        <v>395.83</v>
+        <v>395.92</v>
       </c>
       <c r="G50" t="n">
         <v>399.15</v>
@@ -2197,7 +2197,7 @@
         <v>376.04</v>
       </c>
       <c r="F51" t="n">
-        <v>369.89</v>
+        <v>369.92</v>
       </c>
       <c r="G51" t="n">
         <v>377.17</v>
@@ -2233,7 +2233,7 @@
         <v>391.18</v>
       </c>
       <c r="F52" t="n">
-        <v>388.11</v>
+        <v>387.94</v>
       </c>
       <c r="G52" t="n">
         <v>390.66</v>
@@ -2269,7 +2269,7 @@
         <v>389.45</v>
       </c>
       <c r="F53" t="n">
-        <v>384.1</v>
+        <v>384.15</v>
       </c>
       <c r="G53" t="n">
         <v>390.78</v>
@@ -2305,7 +2305,7 @@
         <v>386.05</v>
       </c>
       <c r="F54" t="n">
-        <v>380.95</v>
+        <v>381.11</v>
       </c>
       <c r="G54" t="n">
         <v>387.86</v>
@@ -2377,7 +2377,7 @@
         <v>377.02</v>
       </c>
       <c r="F56" t="n">
-        <v>374.82</v>
+        <v>374.9</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2407,7 +2407,7 @@
         <v>393.6</v>
       </c>
       <c r="F57" t="n">
-        <v>391.26</v>
+        <v>391.15</v>
       </c>
       <c r="G57" t="n">
         <v>391.96</v>
@@ -2435,7 +2435,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>396.89</v>
+        <v>397.01</v>
       </c>
       <c r="G58" t="n">
         <v>384.18</v>
@@ -2471,7 +2471,7 @@
         <v>389.89</v>
       </c>
       <c r="F59" t="n">
-        <v>390.78</v>
+        <v>390.75</v>
       </c>
       <c r="G59" t="n">
         <v>388.42</v>
@@ -2507,7 +2507,7 @@
         <v>401.14</v>
       </c>
       <c r="F60" t="n">
-        <v>394.56</v>
+        <v>394.65</v>
       </c>
       <c r="G60" t="n">
         <v>399.57</v>
@@ -2543,7 +2543,7 @@
         <v>381.76</v>
       </c>
       <c r="F61" t="n">
-        <v>377.7</v>
+        <v>377.83</v>
       </c>
       <c r="G61" t="n">
         <v>376.82</v>
@@ -2605,7 +2605,7 @@
         <v>395.34</v>
       </c>
       <c r="F63" t="n">
-        <v>387.03</v>
+        <v>386.98</v>
       </c>
       <c r="G63" t="n">
         <v>391.21</v>
@@ -2641,7 +2641,7 @@
         <v>393.86</v>
       </c>
       <c r="F64" t="n">
-        <v>386.27</v>
+        <v>386.18</v>
       </c>
       <c r="G64" t="n">
         <v>387.58</v>
@@ -2677,7 +2677,7 @@
         <v>373.19</v>
       </c>
       <c r="F65" t="n">
-        <v>372.44</v>
+        <v>372.39</v>
       </c>
       <c r="G65" t="n">
         <v>369.5</v>
@@ -2709,7 +2709,7 @@
         <v>378.11</v>
       </c>
       <c r="F66" t="n">
-        <v>367.89</v>
+        <v>367.86</v>
       </c>
       <c r="G66" t="n">
         <v>375.32</v>
@@ -2745,7 +2745,7 @@
         <v>379.96</v>
       </c>
       <c r="F67" t="n">
-        <v>379.1</v>
+        <v>379.21</v>
       </c>
       <c r="G67" t="n">
         <v>377.65</v>
@@ -2781,7 +2781,7 @@
         <v>377.31</v>
       </c>
       <c r="F68" t="n">
-        <v>369.38</v>
+        <v>369.46</v>
       </c>
       <c r="G68" t="n">
         <v>367.36</v>
@@ -2817,7 +2817,7 @@
         <v>384.8</v>
       </c>
       <c r="F69" t="n">
-        <v>374.05</v>
+        <v>374.23</v>
       </c>
       <c r="G69" t="n">
         <v>380.63</v>
@@ -2853,7 +2853,7 @@
         <v>388.42</v>
       </c>
       <c r="F70" t="n">
-        <v>383.7</v>
+        <v>383.58</v>
       </c>
       <c r="G70" t="n">
         <v>380.58</v>
@@ -2915,7 +2915,7 @@
         <v>392.78</v>
       </c>
       <c r="F72" t="n">
-        <v>382.44</v>
+        <v>382.36</v>
       </c>
       <c r="G72" t="n">
         <v>389.76</v>
@@ -2951,7 +2951,7 @@
         <v>388.27</v>
       </c>
       <c r="F73" t="n">
-        <v>396.72</v>
+        <v>396.81</v>
       </c>
       <c r="G73" t="n">
         <v>394</v>
@@ -2987,7 +2987,7 @@
         <v>393.99</v>
       </c>
       <c r="F74" t="n">
-        <v>393.15</v>
+        <v>393.05</v>
       </c>
       <c r="G74" t="n">
         <v>398.28</v>
@@ -3021,7 +3021,7 @@
         <v>401.84</v>
       </c>
       <c r="F75" t="n">
-        <v>390.96</v>
+        <v>391.11</v>
       </c>
       <c r="G75" t="n">
         <v>396.09</v>
@@ -3057,7 +3057,7 @@
         <v>387.52</v>
       </c>
       <c r="F76" t="n">
-        <v>390.78</v>
+        <v>390.73</v>
       </c>
       <c r="G76" t="n">
         <v>390.23</v>
@@ -3093,7 +3093,7 @@
         <v>396.87</v>
       </c>
       <c r="F77" t="n">
-        <v>381.92</v>
+        <v>381.99</v>
       </c>
       <c r="G77" t="n">
         <v>389.4</v>
@@ -3153,7 +3153,7 @@
         <v>382.67</v>
       </c>
       <c r="F79" t="n">
-        <v>381.09</v>
+        <v>381.06</v>
       </c>
       <c r="G79" t="n">
         <v>384.83</v>
@@ -3189,7 +3189,7 @@
         <v>379.64</v>
       </c>
       <c r="F80" t="n">
-        <v>373.34</v>
+        <v>373.31</v>
       </c>
       <c r="G80" t="n">
         <v>369.62</v>
@@ -3225,7 +3225,7 @@
         <v>375.12</v>
       </c>
       <c r="F81" t="n">
-        <v>377.92</v>
+        <v>378.09</v>
       </c>
       <c r="G81" t="n">
         <v>370.46</v>
@@ -3261,7 +3261,7 @@
         <v>377.83</v>
       </c>
       <c r="F82" t="n">
-        <v>384.72</v>
+        <v>384.84</v>
       </c>
       <c r="G82" t="n">
         <v>374.94</v>
@@ -3297,7 +3297,7 @@
         <v>396.03</v>
       </c>
       <c r="F83" t="n">
-        <v>383.58</v>
+        <v>383.65</v>
       </c>
       <c r="G83" t="n">
         <v>391.01</v>
@@ -3329,7 +3329,7 @@
         <v>386.81</v>
       </c>
       <c r="F84" t="n">
-        <v>376.04</v>
+        <v>375.99</v>
       </c>
       <c r="G84" t="n">
         <v>384.77</v>
@@ -3365,7 +3365,7 @@
         <v>390.58</v>
       </c>
       <c r="F85" t="n">
-        <v>377.6</v>
+        <v>377.81</v>
       </c>
       <c r="G85" t="n">
         <v>386.51</v>
@@ -3427,7 +3427,7 @@
         <v>370.59</v>
       </c>
       <c r="F87" t="n">
-        <v>363.07</v>
+        <v>363.06</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3457,7 +3457,7 @@
         <v>373.8</v>
       </c>
       <c r="F88" t="n">
-        <v>371.84</v>
+        <v>371.77</v>
       </c>
       <c r="G88" t="n">
         <v>371.51</v>
@@ -3485,7 +3485,7 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>380.15</v>
+        <v>380.22</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
@@ -3519,7 +3519,7 @@
         <v>396.64</v>
       </c>
       <c r="F90" t="n">
-        <v>395.98</v>
+        <v>396.13</v>
       </c>
       <c r="G90" t="n">
         <v>379.13</v>
@@ -3555,7 +3555,7 @@
         <v>390.04</v>
       </c>
       <c r="F91" t="n">
-        <v>388.02</v>
+        <v>387.83</v>
       </c>
       <c r="G91" t="n">
         <v>391.21</v>
@@ -3591,7 +3591,7 @@
         <v>384.03</v>
       </c>
       <c r="F92" t="n">
-        <v>383.35</v>
+        <v>383.22</v>
       </c>
       <c r="G92" t="n">
         <v>378.92</v>
@@ -3627,7 +3627,7 @@
         <v>373.84</v>
       </c>
       <c r="F93" t="n">
-        <v>377.23</v>
+        <v>377.18</v>
       </c>
       <c r="G93" t="n">
         <v>372.08</v>
@@ -3663,7 +3663,7 @@
         <v>388.68</v>
       </c>
       <c r="F94" t="n">
-        <v>382.3</v>
+        <v>382.15</v>
       </c>
       <c r="G94" t="n">
         <v>387.46</v>
@@ -3699,7 +3699,7 @@
         <v>389.56</v>
       </c>
       <c r="F95" t="n">
-        <v>383.74</v>
+        <v>383.7</v>
       </c>
       <c r="G95" t="n">
         <v>387.42</v>
@@ -3799,7 +3799,7 @@
         <v>379.76</v>
       </c>
       <c r="F98" t="n">
-        <v>383.64</v>
+        <v>383.54</v>
       </c>
       <c r="G98" t="n">
         <v>378.72</v>
@@ -3835,7 +3835,7 @@
         <v>386.45</v>
       </c>
       <c r="F99" t="n">
-        <v>372.7</v>
+        <v>372.77</v>
       </c>
       <c r="G99" t="n">
         <v>373.66</v>
@@ -3871,7 +3871,7 @@
         <v>380.98</v>
       </c>
       <c r="F100" t="n">
-        <v>382.14</v>
+        <v>382.23</v>
       </c>
       <c r="G100" t="n">
         <v>379.25</v>
@@ -3907,7 +3907,7 @@
         <v>393.03</v>
       </c>
       <c r="F101" t="n">
-        <v>393.13</v>
+        <v>393.08</v>
       </c>
       <c r="G101" t="n">
         <v>390.98</v>
@@ -3943,7 +3943,7 @@
         <v>374.97</v>
       </c>
       <c r="F102" t="n">
-        <v>372.04</v>
+        <v>372.23</v>
       </c>
       <c r="G102" t="n">
         <v>375.76</v>
@@ -3979,7 +3979,7 @@
         <v>381.7</v>
       </c>
       <c r="F103" t="n">
-        <v>388.92</v>
+        <v>389.13</v>
       </c>
       <c r="G103" t="n">
         <v>381.03</v>
@@ -4015,7 +4015,7 @@
         <v>391.69</v>
       </c>
       <c r="F104" t="n">
-        <v>382.22</v>
+        <v>382.17</v>
       </c>
       <c r="G104" t="n">
         <v>391.13</v>
@@ -4051,7 +4051,7 @@
         <v>372.14</v>
       </c>
       <c r="F105" t="n">
-        <v>371.7</v>
+        <v>371.83</v>
       </c>
       <c r="G105" t="n">
         <v>377.22</v>
@@ -4145,7 +4145,7 @@
         <v>387.68</v>
       </c>
       <c r="F108" t="n">
-        <v>390.27</v>
+        <v>390.22</v>
       </c>
       <c r="G108" t="n">
         <v>376.67</v>
@@ -4177,7 +4177,7 @@
         <v>384.38</v>
       </c>
       <c r="F109" t="n">
-        <v>371.63</v>
+        <v>371.71</v>
       </c>
       <c r="G109" t="n">
         <v>376.23</v>
@@ -4213,7 +4213,7 @@
         <v>400.88</v>
       </c>
       <c r="F110" t="n">
-        <v>398.17</v>
+        <v>398.31</v>
       </c>
       <c r="G110" t="n">
         <v>398.02</v>
@@ -4249,7 +4249,7 @@
         <v>391.38</v>
       </c>
       <c r="F111" t="n">
-        <v>379.32</v>
+        <v>379.49</v>
       </c>
       <c r="G111" t="n">
         <v>379.03</v>
@@ -4285,7 +4285,7 @@
         <v>376.77</v>
       </c>
       <c r="F112" t="n">
-        <v>381.23</v>
+        <v>381.16</v>
       </c>
       <c r="G112" t="n">
         <v>379.4</v>
@@ -4321,7 +4321,7 @@
         <v>382.86</v>
       </c>
       <c r="F113" t="n">
-        <v>370.43</v>
+        <v>370.44</v>
       </c>
       <c r="G113" t="n">
         <v>380.95</v>
@@ -4357,7 +4357,7 @@
         <v>391.32</v>
       </c>
       <c r="F114" t="n">
-        <v>384.37</v>
+        <v>384.23</v>
       </c>
       <c r="G114" t="n">
         <v>384.91</v>
@@ -4393,7 +4393,7 @@
         <v>383.4</v>
       </c>
       <c r="F115" t="n">
-        <v>382.96</v>
+        <v>382.84</v>
       </c>
       <c r="G115" t="n">
         <v>378.54</v>
@@ -4429,7 +4429,7 @@
         <v>386.87</v>
       </c>
       <c r="F116" t="n">
-        <v>379.05</v>
+        <v>379</v>
       </c>
       <c r="G116" t="n">
         <v>386.86</v>
@@ -4465,7 +4465,7 @@
         <v>372.7</v>
       </c>
       <c r="F117" t="n">
-        <v>366.46</v>
+        <v>366.45</v>
       </c>
       <c r="G117" t="n">
         <v>371.76</v>
@@ -4501,7 +4501,7 @@
         <v>389.11</v>
       </c>
       <c r="F118" t="n">
-        <v>390.5</v>
+        <v>390.49</v>
       </c>
       <c r="G118" t="n">
         <v>387.59</v>
@@ -4537,7 +4537,7 @@
         <v>379.98</v>
       </c>
       <c r="F119" t="n">
-        <v>368.68</v>
+        <v>368.56</v>
       </c>
       <c r="G119" t="n">
         <v>376.29</v>
@@ -4573,7 +4573,7 @@
         <v>390.41</v>
       </c>
       <c r="F120" t="n">
-        <v>376.31</v>
+        <v>376.39</v>
       </c>
       <c r="G120" t="n">
         <v>381.4</v>
@@ -4609,7 +4609,7 @@
         <v>391.31</v>
       </c>
       <c r="F121" t="n">
-        <v>387.53</v>
+        <v>387.51</v>
       </c>
       <c r="G121" t="n">
         <v>389.54</v>
@@ -4645,7 +4645,7 @@
         <v>380.72</v>
       </c>
       <c r="F122" t="n">
-        <v>380.21</v>
+        <v>380.29</v>
       </c>
       <c r="G122" t="n">
         <v>380.6</v>
@@ -4681,7 +4681,7 @@
         <v>388.36</v>
       </c>
       <c r="F123" t="n">
-        <v>383.81</v>
+        <v>383.64</v>
       </c>
       <c r="G123" t="n">
         <v>386.4</v>
@@ -4717,7 +4717,7 @@
         <v>373.32</v>
       </c>
       <c r="F124" t="n">
-        <v>372.82</v>
+        <v>373.01</v>
       </c>
       <c r="G124" t="n">
         <v>368.88</v>
@@ -4805,7 +4805,7 @@
         <v>387.88</v>
       </c>
       <c r="F127" t="n">
-        <v>383.48</v>
+        <v>383.3</v>
       </c>
       <c r="G127" t="n">
         <v>377.53</v>
@@ -4837,7 +4837,7 @@
         <v>382.61</v>
       </c>
       <c r="F128" t="n">
-        <v>383.02</v>
+        <v>382.9</v>
       </c>
       <c r="G128" t="n">
         <v>372.08</v>
@@ -4871,7 +4871,7 @@
         <v>384.83</v>
       </c>
       <c r="F129" t="n">
-        <v>397.49</v>
+        <v>397.66</v>
       </c>
       <c r="G129" t="n">
         <v>380.42</v>
@@ -4907,7 +4907,7 @@
         <v>394.58</v>
       </c>
       <c r="F130" t="n">
-        <v>385.26</v>
+        <v>385.44</v>
       </c>
       <c r="G130" t="n">
         <v>382.77</v>
@@ -4943,7 +4943,7 @@
         <v>372.05</v>
       </c>
       <c r="F131" t="n">
-        <v>374.69</v>
+        <v>374.54</v>
       </c>
       <c r="G131" t="n">
         <v>374.78</v>
@@ -4979,7 +4979,7 @@
         <v>378.76</v>
       </c>
       <c r="F132" t="n">
-        <v>382.93</v>
+        <v>382.85</v>
       </c>
       <c r="G132" t="n">
         <v>386.19</v>
@@ -5013,7 +5013,7 @@
         <v>378.58</v>
       </c>
       <c r="F133" t="n">
-        <v>375</v>
+        <v>374.92</v>
       </c>
       <c r="G133" t="n">
         <v>382.26</v>
@@ -5049,7 +5049,7 @@
         <v>372.49</v>
       </c>
       <c r="F134" t="n">
-        <v>373.08</v>
+        <v>373.13</v>
       </c>
       <c r="G134" t="n">
         <v>370.82</v>
@@ -5085,7 +5085,7 @@
         <v>377.5</v>
       </c>
       <c r="F135" t="n">
-        <v>371.37</v>
+        <v>371.55</v>
       </c>
       <c r="G135" t="n">
         <v>372.52</v>
@@ -5121,7 +5121,7 @@
         <v>382.99</v>
       </c>
       <c r="F136" t="n">
-        <v>393.72</v>
+        <v>393.79</v>
       </c>
       <c r="G136" t="n">
         <v>387.41</v>
@@ -5157,7 +5157,7 @@
         <v>398.57</v>
       </c>
       <c r="F137" t="n">
-        <v>397.36</v>
+        <v>397.55</v>
       </c>
       <c r="G137" t="n">
         <v>397.1</v>
@@ -5187,7 +5187,7 @@
         <v>386.55</v>
       </c>
       <c r="F138" t="n">
-        <v>388.69</v>
+        <v>388.57</v>
       </c>
       <c r="G138" t="n">
         <v>388.2</v>
@@ -5217,7 +5217,7 @@
         <v>391.22</v>
       </c>
       <c r="F139" t="n">
-        <v>386.21</v>
+        <v>386.08</v>
       </c>
       <c r="G139" t="n">
         <v>388.99</v>
@@ -5253,7 +5253,7 @@
         <v>398.69</v>
       </c>
       <c r="F140" t="n">
-        <v>394.91</v>
+        <v>394.9</v>
       </c>
       <c r="G140" t="n">
         <v>395.93</v>
@@ -5287,7 +5287,7 @@
         <v>397.01</v>
       </c>
       <c r="F141" t="n">
-        <v>390.9</v>
+        <v>390.91</v>
       </c>
       <c r="G141" t="n">
         <v>391.85</v>
@@ -5323,7 +5323,7 @@
         <v>395.09</v>
       </c>
       <c r="F142" t="n">
-        <v>392.35</v>
+        <v>392.36</v>
       </c>
       <c r="G142" t="n">
         <v>391.59</v>
@@ -5357,7 +5357,7 @@
         <v>372.71</v>
       </c>
       <c r="F143" t="n">
-        <v>373.93</v>
+        <v>374.07</v>
       </c>
       <c r="G143" t="n">
         <v>376.18</v>
@@ -5393,7 +5393,7 @@
         <v>394.9</v>
       </c>
       <c r="F144" t="n">
-        <v>388.99</v>
+        <v>388.8</v>
       </c>
       <c r="G144" t="n">
         <v>391.04</v>
@@ -5429,7 +5429,7 @@
         <v>381.97</v>
       </c>
       <c r="F145" t="n">
-        <v>382.78</v>
+        <v>382.97</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -5459,7 +5459,7 @@
         <v>394.75</v>
       </c>
       <c r="F146" t="n">
-        <v>388.19</v>
+        <v>388.06</v>
       </c>
       <c r="G146" t="n">
         <v>389.01</v>
@@ -5495,7 +5495,7 @@
         <v>387.29</v>
       </c>
       <c r="F147" t="n">
-        <v>384.07</v>
+        <v>384.17</v>
       </c>
       <c r="G147" t="n">
         <v>380.96</v>
@@ -5531,7 +5531,7 @@
         <v>369.44</v>
       </c>
       <c r="F148" t="n">
-        <v>369.89</v>
+        <v>370.04</v>
       </c>
       <c r="G148" t="n">
         <v>368.65</v>
@@ -5567,7 +5567,7 @@
         <v>387.26</v>
       </c>
       <c r="F149" t="n">
-        <v>385.25</v>
+        <v>385.1</v>
       </c>
       <c r="G149" t="n">
         <v>386.69</v>
@@ -5603,7 +5603,7 @@
         <v>378.69</v>
       </c>
       <c r="F150" t="n">
-        <v>383.78</v>
+        <v>383.71</v>
       </c>
       <c r="G150" t="n">
         <v>381.75</v>
@@ -5639,7 +5639,7 @@
         <v>392.76</v>
       </c>
       <c r="F151" t="n">
-        <v>390.98</v>
+        <v>390.88</v>
       </c>
       <c r="G151" t="n">
         <v>393.15</v>
@@ -5675,7 +5675,7 @@
         <v>384.95</v>
       </c>
       <c r="F152" t="n">
-        <v>387.04</v>
+        <v>386.89</v>
       </c>
       <c r="G152" t="n">
         <v>389.89</v>
@@ -5711,7 +5711,7 @@
         <v>386.6</v>
       </c>
       <c r="F153" t="n">
-        <v>383.6</v>
+        <v>383.81</v>
       </c>
       <c r="G153" t="n">
         <v>385.42</v>
@@ -5747,7 +5747,7 @@
         <v>395.18</v>
       </c>
       <c r="F154" t="n">
-        <v>391.04</v>
+        <v>390.92</v>
       </c>
       <c r="G154" t="n">
         <v>391.65</v>
@@ -5783,7 +5783,7 @@
         <v>395.1</v>
       </c>
       <c r="F155" t="n">
-        <v>391.25</v>
+        <v>391.29</v>
       </c>
       <c r="G155" t="n">
         <v>378.38</v>
@@ -5819,7 +5819,7 @@
         <v>379.67</v>
       </c>
       <c r="F156" t="n">
-        <v>377.22</v>
+        <v>377.21</v>
       </c>
       <c r="G156" t="n">
         <v>386.23</v>
@@ -5855,7 +5855,7 @@
         <v>396.72</v>
       </c>
       <c r="F157" t="n">
-        <v>393.8</v>
+        <v>393.88</v>
       </c>
       <c r="G157" t="n">
         <v>385.86</v>
@@ -5891,7 +5891,7 @@
         <v>399.25</v>
       </c>
       <c r="F158" t="n">
-        <v>397.42</v>
+        <v>397.53</v>
       </c>
       <c r="G158" t="n">
         <v>396.14</v>
@@ -5927,7 +5927,7 @@
         <v>400.06</v>
       </c>
       <c r="F159" t="n">
-        <v>380.21</v>
+        <v>380.4</v>
       </c>
       <c r="G159" t="n">
         <v>375.49</v>
@@ -5963,7 +5963,7 @@
         <v>395.71</v>
       </c>
       <c r="F160" t="n">
-        <v>378.08</v>
+        <v>378.11</v>
       </c>
       <c r="G160" t="n">
         <v>385.79</v>
@@ -5999,7 +5999,7 @@
         <v>397.66</v>
       </c>
       <c r="F161" t="n">
-        <v>390.92</v>
+        <v>390.91</v>
       </c>
       <c r="G161" t="n">
         <v>393.07</v>
@@ -6035,7 +6035,7 @@
         <v>380.12</v>
       </c>
       <c r="F162" t="n">
-        <v>368.81</v>
+        <v>368.67</v>
       </c>
       <c r="G162" t="n">
         <v>373.39</v>
@@ -6065,7 +6065,7 @@
         <v>390.71</v>
       </c>
       <c r="F163" t="n">
-        <v>356.35</v>
+        <v>356.17</v>
       </c>
       <c r="G163" t="n">
         <v>345.64</v>
@@ -6099,7 +6099,7 @@
         <v>391.34</v>
       </c>
       <c r="F164" t="n">
-        <v>381.96</v>
+        <v>382.08</v>
       </c>
       <c r="G164" t="n">
         <v>386.57</v>
@@ -6161,7 +6161,7 @@
         <v>377.4</v>
       </c>
       <c r="F166" t="n">
-        <v>372.21</v>
+        <v>372.09</v>
       </c>
       <c r="G166" t="n">
         <v>381.06</v>
@@ -6189,7 +6189,7 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>393.1</v>
+        <v>393.03</v>
       </c>
       <c r="G167" t="n">
         <v>393.94</v>
@@ -6221,7 +6221,7 @@
         <v>380.15</v>
       </c>
       <c r="F168" t="n">
-        <v>380.16</v>
+        <v>380.28</v>
       </c>
       <c r="G168" t="n">
         <v>379.8</v>
@@ -6257,7 +6257,7 @@
         <v>375.23</v>
       </c>
       <c r="F169" t="n">
-        <v>376.36</v>
+        <v>376.3</v>
       </c>
       <c r="G169" t="n">
         <v>373.05</v>
@@ -6293,7 +6293,7 @@
         <v>391.93</v>
       </c>
       <c r="F170" t="n">
-        <v>380.53</v>
+        <v>380.56</v>
       </c>
       <c r="G170" t="n">
         <v>392.18</v>
@@ -6329,7 +6329,7 @@
         <v>379.11</v>
       </c>
       <c r="F171" t="n">
-        <v>378.96</v>
+        <v>379.15</v>
       </c>
       <c r="G171" t="n">
         <v>379.1</v>
@@ -6365,7 +6365,7 @@
         <v>393.81</v>
       </c>
       <c r="F172" t="n">
-        <v>391.13</v>
+        <v>391.01</v>
       </c>
       <c r="G172" t="n">
         <v>392.63</v>
@@ -6401,7 +6401,7 @@
         <v>383.21</v>
       </c>
       <c r="F173" t="n">
-        <v>371.71</v>
+        <v>371.56</v>
       </c>
       <c r="G173" t="n">
         <v>370</v>
@@ -6437,7 +6437,7 @@
         <v>398.24</v>
       </c>
       <c r="F174" t="n">
-        <v>383.72</v>
+        <v>383.8</v>
       </c>
       <c r="G174" t="n">
         <v>393.18</v>
@@ -6473,7 +6473,7 @@
         <v>388.87</v>
       </c>
       <c r="F175" t="n">
-        <v>386.79</v>
+        <v>386.69</v>
       </c>
       <c r="G175" t="n">
         <v>382.94</v>
@@ -6533,7 +6533,7 @@
         <v>396.65</v>
       </c>
       <c r="F177" t="n">
-        <v>395.44</v>
+        <v>395.52</v>
       </c>
       <c r="G177" t="n">
         <v>395.4</v>
@@ -6605,7 +6605,7 @@
         <v>371.13</v>
       </c>
       <c r="F179" t="n">
-        <v>371.85</v>
+        <v>371.89</v>
       </c>
       <c r="G179" t="n">
         <v>370.95</v>
@@ -6641,7 +6641,7 @@
         <v>394.73</v>
       </c>
       <c r="F180" t="n">
-        <v>390.63</v>
+        <v>390.61</v>
       </c>
       <c r="G180" t="n">
         <v>395.08</v>
@@ -6677,7 +6677,7 @@
         <v>381.71</v>
       </c>
       <c r="F181" t="n">
-        <v>386.89</v>
+        <v>387.03</v>
       </c>
       <c r="G181" t="n">
         <v>386.07</v>
@@ -6711,7 +6711,7 @@
         <v>376.68</v>
       </c>
       <c r="F182" t="n">
-        <v>362.21</v>
+        <v>362.08</v>
       </c>
       <c r="G182" t="n">
         <v>375.45</v>
@@ -6747,7 +6747,7 @@
         <v>378.33</v>
       </c>
       <c r="F183" t="n">
-        <v>372.57</v>
+        <v>372.41</v>
       </c>
       <c r="G183" t="n">
         <v>383.08</v>
@@ -6783,7 +6783,7 @@
         <v>370.48</v>
       </c>
       <c r="F184" t="n">
-        <v>369.86</v>
+        <v>369.78</v>
       </c>
       <c r="G184" t="n">
         <v>373.3</v>
@@ -6819,7 +6819,7 @@
         <v>381.9</v>
       </c>
       <c r="F185" t="n">
-        <v>382.42</v>
+        <v>382.5</v>
       </c>
       <c r="G185" t="n">
         <v>380.25</v>
@@ -6855,7 +6855,7 @@
         <v>381.64</v>
       </c>
       <c r="F186" t="n">
-        <v>385.02</v>
+        <v>385.23</v>
       </c>
       <c r="G186" t="n">
         <v>380.5</v>
@@ -6891,7 +6891,7 @@
         <v>389.96</v>
       </c>
       <c r="F187" t="n">
-        <v>381.66</v>
+        <v>381.54</v>
       </c>
       <c r="G187" t="n">
         <v>385.55</v>
@@ -6927,7 +6927,7 @@
         <v>380.49</v>
       </c>
       <c r="F188" t="n">
-        <v>384.72</v>
+        <v>384.73</v>
       </c>
       <c r="G188" t="n">
         <v>373.9</v>
@@ -6963,7 +6963,7 @@
         <v>398.48</v>
       </c>
       <c r="F189" t="n">
-        <v>392.38</v>
+        <v>392.36</v>
       </c>
       <c r="G189" t="n">
         <v>394.03</v>
@@ -7047,7 +7047,7 @@
         <v>388.46</v>
       </c>
       <c r="F192" t="n">
-        <v>372.48</v>
+        <v>372.39</v>
       </c>
       <c r="G192" t="n">
         <v>380.64</v>
@@ -7109,7 +7109,7 @@
         <v>396.02</v>
       </c>
       <c r="F194" t="n">
-        <v>392.21</v>
+        <v>392.18</v>
       </c>
       <c r="G194" t="n">
         <v>392.34</v>
@@ -7145,7 +7145,7 @@
         <v>370.91</v>
       </c>
       <c r="F195" t="n">
-        <v>367.45</v>
+        <v>367.58</v>
       </c>
       <c r="G195" t="n">
         <v>365.29</v>
@@ -7181,7 +7181,7 @@
         <v>391.68</v>
       </c>
       <c r="F196" t="n">
-        <v>386.51</v>
+        <v>386.36</v>
       </c>
       <c r="G196" t="n">
         <v>388.18</v>
@@ -7217,7 +7217,7 @@
         <v>370.38</v>
       </c>
       <c r="F197" t="n">
-        <v>365.94</v>
+        <v>366.08</v>
       </c>
       <c r="G197" t="n">
         <v>366.63</v>
@@ -7253,7 +7253,7 @@
         <v>372.67</v>
       </c>
       <c r="F198" t="n">
-        <v>372.7</v>
+        <v>372.74</v>
       </c>
       <c r="G198" t="n">
         <v>371.78</v>
@@ -7289,7 +7289,7 @@
         <v>384.44</v>
       </c>
       <c r="F199" t="n">
-        <v>381.57</v>
+        <v>381.79</v>
       </c>
       <c r="G199" t="n">
         <v>381.32</v>
@@ -7325,7 +7325,7 @@
         <v>379.64</v>
       </c>
       <c r="F200" t="n">
-        <v>380.67</v>
+        <v>380.88</v>
       </c>
       <c r="G200" t="n">
         <v>380.53</v>
@@ -7361,7 +7361,7 @@
         <v>380.44</v>
       </c>
       <c r="F201" t="n">
-        <v>376.19</v>
+        <v>376.15</v>
       </c>
       <c r="G201" t="n">
         <v>386.07</v>
@@ -7397,7 +7397,7 @@
         <v>396.12</v>
       </c>
       <c r="F202" t="n">
-        <v>393.01</v>
+        <v>393.05</v>
       </c>
       <c r="G202" t="n">
         <v>393.59</v>
@@ -7433,7 +7433,7 @@
         <v>380.44</v>
       </c>
       <c r="F203" t="n">
-        <v>386.28</v>
+        <v>386.38</v>
       </c>
       <c r="G203" t="n">
         <v>370.15</v>
@@ -7469,7 +7469,7 @@
         <v>372.69</v>
       </c>
       <c r="F204" t="n">
-        <v>370.34</v>
+        <v>370.47</v>
       </c>
       <c r="G204" t="n">
         <v>368.81</v>
@@ -7497,7 +7497,7 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>391.17</v>
+        <v>391.02</v>
       </c>
       <c r="G205" t="n">
         <v>392.08</v>
@@ -7533,7 +7533,7 @@
         <v>387.7</v>
       </c>
       <c r="F206" t="n">
-        <v>383.2</v>
+        <v>383.41</v>
       </c>
       <c r="G206" t="n">
         <v>376.12</v>
@@ -7569,7 +7569,7 @@
         <v>395.25</v>
       </c>
       <c r="F207" t="n">
-        <v>391.87</v>
+        <v>391.76</v>
       </c>
       <c r="G207" t="n">
         <v>390.42</v>
@@ -7605,7 +7605,7 @@
         <v>396.54</v>
       </c>
       <c r="F208" t="n">
-        <v>391.43</v>
+        <v>391.28</v>
       </c>
       <c r="G208" t="n">
         <v>392.28</v>
@@ -7675,7 +7675,7 @@
         <v>398.2</v>
       </c>
       <c r="F210" t="n">
-        <v>380.04</v>
+        <v>380.14</v>
       </c>
       <c r="G210" t="n">
         <v>395.82</v>
@@ -7711,7 +7711,7 @@
         <v>389.55</v>
       </c>
       <c r="F211" t="n">
-        <v>376.45</v>
+        <v>376.31</v>
       </c>
       <c r="G211" t="n">
         <v>384.65</v>
@@ -7747,7 +7747,7 @@
         <v>398.17</v>
       </c>
       <c r="F212" t="n">
-        <v>393.55</v>
+        <v>393.65</v>
       </c>
       <c r="G212" t="n">
         <v>391.24</v>
@@ -7783,7 +7783,7 @@
         <v>380.25</v>
       </c>
       <c r="F213" t="n">
-        <v>376.44</v>
+        <v>376.61</v>
       </c>
       <c r="G213" t="n">
         <v>377.57</v>
@@ -7819,7 +7819,7 @@
         <v>376.02</v>
       </c>
       <c r="F214" t="n">
-        <v>375.94</v>
+        <v>376.18</v>
       </c>
       <c r="G214" t="n">
         <v>374.48</v>
@@ -7855,7 +7855,7 @@
         <v>392.56</v>
       </c>
       <c r="F215" t="n">
-        <v>387.42</v>
+        <v>387.31</v>
       </c>
       <c r="G215" t="n">
         <v>390.76</v>
@@ -7891,7 +7891,7 @@
         <v>388.67</v>
       </c>
       <c r="F216" t="n">
-        <v>388.83</v>
+        <v>388.88</v>
       </c>
       <c r="G216" t="n">
         <v>386.5</v>
@@ -7927,7 +7927,7 @@
         <v>380.91</v>
       </c>
       <c r="F217" t="n">
-        <v>380.46</v>
+        <v>380.36</v>
       </c>
       <c r="G217" t="n">
         <v>382.36</v>
@@ -7963,7 +7963,7 @@
         <v>383.24</v>
       </c>
       <c r="F218" t="n">
-        <v>377.75</v>
+        <v>377.91</v>
       </c>
       <c r="G218" t="n">
         <v>380</v>
@@ -7999,7 +7999,7 @@
         <v>388.16</v>
       </c>
       <c r="F219" t="n">
-        <v>378.74</v>
+        <v>378.82</v>
       </c>
       <c r="G219" t="n">
         <v>380.08</v>
@@ -8035,7 +8035,7 @@
         <v>394.21</v>
       </c>
       <c r="F220" t="n">
-        <v>381.14</v>
+        <v>381.24</v>
       </c>
       <c r="G220" t="n">
         <v>376.24</v>
@@ -8071,7 +8071,7 @@
         <v>371.34</v>
       </c>
       <c r="F221" t="n">
-        <v>368.35</v>
+        <v>368.47</v>
       </c>
       <c r="G221" t="n">
         <v>367.26</v>
@@ -8107,7 +8107,7 @@
         <v>394.47</v>
       </c>
       <c r="F222" t="n">
-        <v>388.64</v>
+        <v>388.47</v>
       </c>
       <c r="G222" t="n">
         <v>387.68</v>
@@ -8143,7 +8143,7 @@
         <v>389.09</v>
       </c>
       <c r="F223" t="n">
-        <v>402.41</v>
+        <v>402.6</v>
       </c>
       <c r="G223" t="n">
         <v>391.71</v>
@@ -8177,7 +8177,7 @@
         <v>397.38</v>
       </c>
       <c r="F224" t="n">
-        <v>392.74</v>
+        <v>392.62</v>
       </c>
       <c r="G224" t="n">
         <v>391.17</v>
@@ -8213,7 +8213,7 @@
         <v>398.91</v>
       </c>
       <c r="F225" t="n">
-        <v>395.58</v>
+        <v>395.59</v>
       </c>
       <c r="G225" t="n">
         <v>394.84</v>
@@ -8249,7 +8249,7 @@
         <v>389.04</v>
       </c>
       <c r="F226" t="n">
-        <v>385.74</v>
+        <v>385.73</v>
       </c>
       <c r="G226" t="n">
         <v>382.06</v>
@@ -8285,7 +8285,7 @@
         <v>390.14</v>
       </c>
       <c r="F227" t="n">
-        <v>380.62</v>
+        <v>380.47</v>
       </c>
       <c r="G227" t="n">
         <v>381.27</v>
@@ -8321,7 +8321,7 @@
         <v>383.75</v>
       </c>
       <c r="F228" t="n">
-        <v>372.26</v>
+        <v>372.13</v>
       </c>
       <c r="G228" t="n">
         <v>373.45</v>
@@ -8357,7 +8357,7 @@
         <v>377.57</v>
       </c>
       <c r="F229" t="n">
-        <v>373.74</v>
+        <v>373.89</v>
       </c>
       <c r="G229" t="n">
         <v>372.5</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>375.08</v>
+        <v>374.94</v>
       </c>
       <c r="G230" t="n">
         <v>369.78</v>
@@ -8423,7 +8423,7 @@
         <v>396.57</v>
       </c>
       <c r="F231" t="n">
-        <v>382.4</v>
+        <v>382.44</v>
       </c>
       <c r="G231" t="n">
         <v>392.5</v>
@@ -8459,7 +8459,7 @@
         <v>394.39</v>
       </c>
       <c r="F232" t="n">
-        <v>386.43</v>
+        <v>386.36</v>
       </c>
       <c r="G232" t="n">
         <v>392.02</v>
@@ -8495,7 +8495,7 @@
         <v>396.81</v>
       </c>
       <c r="F233" t="n">
-        <v>389.12</v>
+        <v>389.15</v>
       </c>
       <c r="G233" t="n">
         <v>393.5</v>
@@ -8531,7 +8531,7 @@
         <v>377.43</v>
       </c>
       <c r="F234" t="n">
-        <v>379.87</v>
+        <v>379.94</v>
       </c>
       <c r="G234" t="n">
         <v>381.97</v>
@@ -8567,7 +8567,7 @@
         <v>379</v>
       </c>
       <c r="F235" t="n">
-        <v>378</v>
+        <v>378.15</v>
       </c>
       <c r="G235" t="n">
         <v>379.83</v>
@@ -8603,7 +8603,7 @@
         <v>391.56</v>
       </c>
       <c r="F236" t="n">
-        <v>388.01</v>
+        <v>387.88</v>
       </c>
       <c r="G236" t="n">
         <v>390.59</v>
@@ -8639,7 +8639,7 @@
         <v>372.63</v>
       </c>
       <c r="F237" t="n">
-        <v>373.47</v>
+        <v>373.39</v>
       </c>
       <c r="G237" t="n">
         <v>370.17</v>
@@ -8711,7 +8711,7 @@
         <v>396.76</v>
       </c>
       <c r="F239" t="n">
-        <v>392.12</v>
+        <v>392.16</v>
       </c>
       <c r="G239" t="n">
         <v>393.28</v>
@@ -8747,7 +8747,7 @@
         <v>388.36</v>
       </c>
       <c r="F240" t="n">
-        <v>382.51</v>
+        <v>382.63</v>
       </c>
       <c r="G240" t="n">
         <v>374.51</v>
@@ -8783,7 +8783,7 @@
         <v>386.84</v>
       </c>
       <c r="F241" t="n">
-        <v>376.65</v>
+        <v>376.81</v>
       </c>
       <c r="G241" t="n">
         <v>384.89</v>
@@ -8819,7 +8819,7 @@
         <v>393.46</v>
       </c>
       <c r="F242" t="n">
-        <v>387.18</v>
+        <v>387.03</v>
       </c>
       <c r="G242" t="n">
         <v>392.94</v>
@@ -8877,7 +8877,7 @@
         <v>394.87</v>
       </c>
       <c r="F244" t="n">
-        <v>392.29</v>
+        <v>392.3</v>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
@@ -8935,7 +8935,7 @@
         <v>389.5</v>
       </c>
       <c r="F246" t="n">
-        <v>386.74</v>
+        <v>386.57</v>
       </c>
       <c r="G246" t="n">
         <v>390.31</v>
@@ -8971,7 +8971,7 @@
         <v>397.82</v>
       </c>
       <c r="F247" t="n">
-        <v>392.58</v>
+        <v>392.73</v>
       </c>
       <c r="G247" t="n">
         <v>394.96</v>
@@ -9007,7 +9007,7 @@
         <v>376.29</v>
       </c>
       <c r="F248" t="n">
-        <v>384.29</v>
+        <v>384.43</v>
       </c>
       <c r="G248" t="n">
         <v>375.89</v>
@@ -9043,7 +9043,7 @@
         <v>382.75</v>
       </c>
       <c r="F249" t="n">
-        <v>387.18</v>
+        <v>387.03</v>
       </c>
       <c r="G249" t="n">
         <v>387.12</v>
@@ -9079,7 +9079,7 @@
         <v>389.98</v>
       </c>
       <c r="F250" t="n">
-        <v>388.5</v>
+        <v>388.39</v>
       </c>
       <c r="G250" t="n">
         <v>390.79</v>
@@ -9115,7 +9115,7 @@
         <v>392.4</v>
       </c>
       <c r="F251" t="n">
-        <v>389.12</v>
+        <v>389.02</v>
       </c>
       <c r="G251" t="n">
         <v>390.72</v>
@@ -9147,7 +9147,7 @@
         <v>383.42</v>
       </c>
       <c r="F252" t="n">
-        <v>376.17</v>
+        <v>376.27</v>
       </c>
       <c r="G252" t="n">
         <v>381.37</v>
@@ -9183,7 +9183,7 @@
         <v>387.67</v>
       </c>
       <c r="F253" t="n">
-        <v>380.84</v>
+        <v>380.92</v>
       </c>
       <c r="G253" t="n">
         <v>382.51</v>
@@ -9219,7 +9219,7 @@
         <v>382.45</v>
       </c>
       <c r="F254" t="n">
-        <v>374.05</v>
+        <v>374.03</v>
       </c>
       <c r="G254" t="n">
         <v>381.23</v>
@@ -9255,7 +9255,7 @@
         <v>388.71</v>
       </c>
       <c r="F255" t="n">
-        <v>395.12</v>
+        <v>395.27</v>
       </c>
       <c r="G255" t="n">
         <v>388.38</v>
@@ -9291,7 +9291,7 @@
         <v>391</v>
       </c>
       <c r="F256" t="n">
-        <v>391.17</v>
+        <v>391.1</v>
       </c>
       <c r="G256" t="n">
         <v>391.25</v>
@@ -9327,7 +9327,7 @@
         <v>391.87</v>
       </c>
       <c r="F257" t="n">
-        <v>386.52</v>
+        <v>386.44</v>
       </c>
       <c r="G257" t="n">
         <v>385.64</v>
@@ -9363,7 +9363,7 @@
         <v>399.87</v>
       </c>
       <c r="F258" t="n">
-        <v>394.72</v>
+        <v>394.86</v>
       </c>
       <c r="G258" t="n">
         <v>397.47</v>
@@ -9399,7 +9399,7 @@
         <v>395.04</v>
       </c>
       <c r="F259" t="n">
-        <v>380.3</v>
+        <v>380.46</v>
       </c>
       <c r="G259" t="n">
         <v>385.98</v>
@@ -9431,7 +9431,7 @@
         <v>388.18</v>
       </c>
       <c r="F260" t="n">
-        <v>384.73</v>
+        <v>384.71</v>
       </c>
       <c r="G260" t="n">
         <v>379.52</v>
@@ -9467,7 +9467,7 @@
         <v>382.17</v>
       </c>
       <c r="F261" t="n">
-        <v>374</v>
+        <v>373.93</v>
       </c>
       <c r="G261" t="n">
         <v>373.29</v>
@@ -9503,7 +9503,7 @@
         <v>390.36</v>
       </c>
       <c r="F262" t="n">
-        <v>383.42</v>
+        <v>383.25</v>
       </c>
       <c r="G262" t="n">
         <v>385.07</v>
@@ -9539,7 +9539,7 @@
         <v>384.99</v>
       </c>
       <c r="F263" t="n">
-        <v>388.79</v>
+        <v>389.02</v>
       </c>
       <c r="G263" t="n">
         <v>382.91</v>
@@ -9575,7 +9575,7 @@
         <v>396.68</v>
       </c>
       <c r="F264" t="n">
-        <v>392.74</v>
+        <v>392.79</v>
       </c>
       <c r="G264" t="n">
         <v>392.34</v>
@@ -9611,7 +9611,7 @@
         <v>378.41</v>
       </c>
       <c r="F265" t="n">
-        <v>371.67</v>
+        <v>371.57</v>
       </c>
       <c r="G265" t="n">
         <v>375.47</v>
@@ -9647,7 +9647,7 @@
         <v>387.76</v>
       </c>
       <c r="F266" t="n">
-        <v>384.73</v>
+        <v>384.63</v>
       </c>
       <c r="G266" t="n">
         <v>398.78</v>
@@ -9683,7 +9683,7 @@
         <v>386.84</v>
       </c>
       <c r="F267" t="n">
-        <v>388.41</v>
+        <v>388.29</v>
       </c>
       <c r="G267" t="n">
         <v>388.55</v>
@@ -9719,7 +9719,7 @@
         <v>385.16</v>
       </c>
       <c r="F268" t="n">
-        <v>378.6</v>
+        <v>378.81</v>
       </c>
       <c r="G268" t="n">
         <v>377.26</v>
@@ -9755,7 +9755,7 @@
         <v>406.16</v>
       </c>
       <c r="F269" t="n">
-        <v>391.36</v>
+        <v>391.29</v>
       </c>
       <c r="G269" t="n">
         <v>394.19</v>
@@ -9791,7 +9791,7 @@
         <v>396.83</v>
       </c>
       <c r="F270" t="n">
-        <v>387.1</v>
+        <v>387.12</v>
       </c>
       <c r="G270" t="n">
         <v>394.12</v>
@@ -9827,7 +9827,7 @@
         <v>397.98</v>
       </c>
       <c r="F271" t="n">
-        <v>391.41</v>
+        <v>391.42</v>
       </c>
       <c r="G271" t="n">
         <v>394.22</v>
@@ -9863,7 +9863,7 @@
         <v>390.85</v>
       </c>
       <c r="F272" t="n">
-        <v>387.5</v>
+        <v>387.33</v>
       </c>
       <c r="G272" t="n">
         <v>390.36</v>
@@ -9899,7 +9899,7 @@
         <v>390.97</v>
       </c>
       <c r="F273" t="n">
-        <v>378.68</v>
+        <v>378.84</v>
       </c>
       <c r="G273" t="n">
         <v>378.74</v>
@@ -9927,7 +9927,7 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>375.75</v>
+        <v>375.97</v>
       </c>
       <c r="G274" t="n">
         <v>390.13</v>
@@ -9963,7 +9963,7 @@
         <v>382.85</v>
       </c>
       <c r="F275" t="n">
-        <v>376.4</v>
+        <v>376.52</v>
       </c>
       <c r="G275" t="n">
         <v>374.19</v>
@@ -9999,7 +9999,7 @@
         <v>387.18</v>
       </c>
       <c r="F276" t="n">
-        <v>385.55</v>
+        <v>385.43</v>
       </c>
       <c r="G276" t="n">
         <v>379.38</v>
@@ -10033,7 +10033,7 @@
         <v>390.81</v>
       </c>
       <c r="F277" t="n">
-        <v>382.68</v>
+        <v>382.66</v>
       </c>
       <c r="G277" t="n">
         <v>389.26</v>
@@ -10069,7 +10069,7 @@
         <v>378.75</v>
       </c>
       <c r="F278" t="n">
-        <v>375.07</v>
+        <v>375.03</v>
       </c>
       <c r="G278" t="n">
         <v>376.39</v>
@@ -10105,7 +10105,7 @@
         <v>381.48</v>
       </c>
       <c r="F279" t="n">
-        <v>379.58</v>
+        <v>379.65</v>
       </c>
       <c r="G279" t="n">
         <v>375.66</v>
@@ -10141,7 +10141,7 @@
         <v>376.68</v>
       </c>
       <c r="F280" t="n">
-        <v>378.29</v>
+        <v>378.21</v>
       </c>
       <c r="G280" t="n">
         <v>369.66</v>
@@ -10177,7 +10177,7 @@
         <v>391.69</v>
       </c>
       <c r="F281" t="n">
-        <v>376.63</v>
+        <v>376.59</v>
       </c>
       <c r="G281" t="n">
         <v>376.52</v>
@@ -10241,7 +10241,7 @@
         <v>395.97</v>
       </c>
       <c r="F283" t="n">
-        <v>392.93</v>
+        <v>392.95</v>
       </c>
       <c r="G283" t="n">
         <v>377.08</v>
@@ -10277,7 +10277,7 @@
         <v>383.42</v>
       </c>
       <c r="F284" t="n">
-        <v>386.15</v>
+        <v>386.14</v>
       </c>
       <c r="G284" t="n">
         <v>375.65</v>
@@ -10349,7 +10349,7 @@
         <v>398.53</v>
       </c>
       <c r="F286" t="n">
-        <v>393.97</v>
+        <v>394.02</v>
       </c>
       <c r="G286" t="n">
         <v>387.5</v>
@@ -10385,7 +10385,7 @@
         <v>393.97</v>
       </c>
       <c r="F287" t="n">
-        <v>371.91</v>
+        <v>371.84</v>
       </c>
       <c r="G287" t="n">
         <v>393.39</v>
@@ -10417,7 +10417,7 @@
         <v>397.98</v>
       </c>
       <c r="F288" t="n">
-        <v>396.7</v>
+        <v>396.84</v>
       </c>
       <c r="G288" t="n">
         <v>393.85</v>
@@ -10453,7 +10453,7 @@
         <v>393.69</v>
       </c>
       <c r="F289" t="n">
-        <v>388.26</v>
+        <v>388.09</v>
       </c>
       <c r="G289" t="n">
         <v>387.89</v>
@@ -10483,7 +10483,7 @@
         <v>393.13</v>
       </c>
       <c r="F290" t="n">
-        <v>375.28</v>
+        <v>375.35</v>
       </c>
       <c r="G290" t="n">
         <v>392.49</v>
@@ -10511,7 +10511,7 @@
         <v>393.02</v>
       </c>
       <c r="F291" t="n">
-        <v>372.96</v>
+        <v>372.9</v>
       </c>
       <c r="G291" t="n">
         <v>375.26</v>
@@ -10547,7 +10547,7 @@
         <v>378.65</v>
       </c>
       <c r="F292" t="n">
-        <v>378.37</v>
+        <v>378.47</v>
       </c>
       <c r="G292" t="n">
         <v>378.03</v>
@@ -10583,7 +10583,7 @@
         <v>377.97</v>
       </c>
       <c r="F293" t="n">
-        <v>370.8</v>
+        <v>370.83</v>
       </c>
       <c r="G293" t="n">
         <v>372.14</v>
@@ -10643,7 +10643,7 @@
         <v>395.08</v>
       </c>
       <c r="F295" t="n">
-        <v>391.35</v>
+        <v>391.23</v>
       </c>
       <c r="G295" t="n">
         <v>392.47</v>
@@ -10679,7 +10679,7 @@
         <v>383.1</v>
       </c>
       <c r="F296" t="n">
-        <v>373.02</v>
+        <v>372.9</v>
       </c>
       <c r="G296" t="n">
         <v>381.87</v>
@@ -10715,7 +10715,7 @@
         <v>394.18</v>
       </c>
       <c r="F297" t="n">
-        <v>379.13</v>
+        <v>379.19</v>
       </c>
       <c r="G297" t="n">
         <v>377.63</v>
@@ -10745,7 +10745,7 @@
         <v>383.74</v>
       </c>
       <c r="F298" t="n">
-        <v>396.64</v>
+        <v>396.89</v>
       </c>
       <c r="G298" t="n">
         <v>398.23</v>
@@ -10781,7 +10781,7 @@
         <v>385.6</v>
       </c>
       <c r="F299" t="n">
-        <v>370.86</v>
+        <v>371.11</v>
       </c>
       <c r="G299" t="n">
         <v>367.83</v>
@@ -10817,7 +10817,7 @@
         <v>385.62</v>
       </c>
       <c r="F300" t="n">
-        <v>383.15</v>
+        <v>383.03</v>
       </c>
       <c r="G300" t="n">
         <v>370.04</v>
@@ -10889,7 +10889,7 @@
         <v>389.71</v>
       </c>
       <c r="F302" t="n">
-        <v>373.91</v>
+        <v>373.9</v>
       </c>
       <c r="G302" t="n">
         <v>375.57</v>
@@ -10923,7 +10923,7 @@
         <v>395.45</v>
       </c>
       <c r="F303" t="n">
-        <v>379.39</v>
+        <v>379.47</v>
       </c>
       <c r="G303" t="n">
         <v>372.32</v>
@@ -10959,7 +10959,7 @@
         <v>397.82</v>
       </c>
       <c r="F304" t="n">
-        <v>380.89</v>
+        <v>380.97</v>
       </c>
       <c r="G304" t="n">
         <v>377.47</v>
@@ -10995,7 +10995,7 @@
         <v>397.69</v>
       </c>
       <c r="F305" t="n">
-        <v>393.78</v>
+        <v>393.68</v>
       </c>
       <c r="G305" t="n">
         <v>383.96</v>
@@ -11029,7 +11029,7 @@
         <v>396.79</v>
       </c>
       <c r="F306" t="n">
-        <v>388.63</v>
+        <v>388.57</v>
       </c>
       <c r="G306" t="n">
         <v>384.37</v>
@@ -11065,7 +11065,7 @@
         <v>378.64</v>
       </c>
       <c r="F307" t="n">
-        <v>382.74</v>
+        <v>382.83</v>
       </c>
       <c r="G307" t="n">
         <v>374.68</v>
@@ -11099,7 +11099,7 @@
         <v>392.06</v>
       </c>
       <c r="F308" t="n">
-        <v>389.73</v>
+        <v>389.9</v>
       </c>
       <c r="G308" t="n">
         <v>379.93</v>
@@ -11131,7 +11131,7 @@
         <v>412.09</v>
       </c>
       <c r="F309" t="n">
-        <v>422.98</v>
+        <v>422.92</v>
       </c>
       <c r="G309" t="n">
         <v>393.16</v>
@@ -11187,7 +11187,7 @@
         <v>399</v>
       </c>
       <c r="F311" t="n">
-        <v>378.72</v>
+        <v>378.8</v>
       </c>
       <c r="G311" t="n">
         <v>392.48</v>
@@ -11223,7 +11223,7 @@
         <v>396.68</v>
       </c>
       <c r="F312" t="n">
-        <v>390.99</v>
+        <v>390.86</v>
       </c>
       <c r="G312" t="n">
         <v>379.25</v>
@@ -11255,7 +11255,7 @@
         <v>399.31</v>
       </c>
       <c r="F313" t="n">
-        <v>395.92</v>
+        <v>395.95</v>
       </c>
       <c r="G313" t="n">
         <v>393.62</v>
@@ -11291,7 +11291,7 @@
         <v>397.9</v>
       </c>
       <c r="F314" t="n">
-        <v>393.37</v>
+        <v>393.38</v>
       </c>
       <c r="G314" t="n">
         <v>381.08</v>
@@ -11327,7 +11327,7 @@
         <v>394.53</v>
       </c>
       <c r="F315" t="n">
-        <v>385.9</v>
+        <v>385.76</v>
       </c>
       <c r="G315" t="n">
         <v>381.91</v>
@@ -11363,7 +11363,7 @@
         <v>401.63</v>
       </c>
       <c r="F316" t="n">
-        <v>387.53</v>
+        <v>387.73</v>
       </c>
       <c r="G316" t="n">
         <v>388</v>
@@ -11399,7 +11399,7 @@
         <v>393.94</v>
       </c>
       <c r="F317" t="n">
-        <v>383.6</v>
+        <v>383.46</v>
       </c>
       <c r="G317" t="n">
         <v>386.47</v>
@@ -11435,7 +11435,7 @@
         <v>398.35</v>
       </c>
       <c r="F318" t="n">
-        <v>382.61</v>
+        <v>382.74</v>
       </c>
       <c r="G318" t="n">
         <v>376.71</v>
@@ -11467,7 +11467,7 @@
         <v>398.09</v>
       </c>
       <c r="F319" t="n">
-        <v>396.92</v>
+        <v>397.06</v>
       </c>
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
@@ -11497,7 +11497,7 @@
         <v>397.09</v>
       </c>
       <c r="F320" t="n">
-        <v>392.97</v>
+        <v>393.04</v>
       </c>
       <c r="G320" t="n">
         <v>379.45</v>
@@ -11561,7 +11561,7 @@
         <v>393.24</v>
       </c>
       <c r="F322" t="n">
-        <v>390.54</v>
+        <v>390.46</v>
       </c>
       <c r="G322" t="n">
         <v>389.77</v>
@@ -11623,7 +11623,7 @@
         <v>392.28</v>
       </c>
       <c r="F324" t="n">
-        <v>377.27</v>
+        <v>377.14</v>
       </c>
       <c r="G324" t="n">
         <v>385.97</v>
@@ -11659,7 +11659,7 @@
         <v>373.68</v>
       </c>
       <c r="F325" t="n">
-        <v>367.8</v>
+        <v>367.72</v>
       </c>
       <c r="G325" t="n">
         <v>370.18</v>
@@ -11695,7 +11695,7 @@
         <v>398.04</v>
       </c>
       <c r="F326" t="n">
-        <v>385.32</v>
+        <v>385.4</v>
       </c>
       <c r="G326" t="n">
         <v>392.55</v>
@@ -11731,7 +11731,7 @@
         <v>378.85</v>
       </c>
       <c r="F327" t="n">
-        <v>375.33</v>
+        <v>375.39</v>
       </c>
       <c r="G327" t="n">
         <v>372.76</v>
@@ -11767,7 +11767,7 @@
         <v>394.58</v>
       </c>
       <c r="F328" t="n">
-        <v>394.07</v>
+        <v>394.04</v>
       </c>
       <c r="G328" t="n">
         <v>393.9</v>
@@ -11803,7 +11803,7 @@
         <v>384.39</v>
       </c>
       <c r="F329" t="n">
-        <v>382.88</v>
+        <v>382.89</v>
       </c>
       <c r="G329" t="n">
         <v>376.69</v>
@@ -11839,7 +11839,7 @@
         <v>389.21</v>
       </c>
       <c r="F330" t="n">
-        <v>389.68</v>
+        <v>389.89</v>
       </c>
       <c r="G330" t="n">
         <v>380.75</v>
@@ -11875,7 +11875,7 @@
         <v>382.89</v>
       </c>
       <c r="F331" t="n">
-        <v>383.33</v>
+        <v>383.44</v>
       </c>
       <c r="G331" t="n">
         <v>378.4</v>
@@ -11911,7 +11911,7 @@
         <v>376.3</v>
       </c>
       <c r="F332" t="n">
-        <v>375.21</v>
+        <v>375.38</v>
       </c>
       <c r="G332" t="n">
         <v>371.53</v>
@@ -11947,7 +11947,7 @@
         <v>392.84</v>
       </c>
       <c r="F333" t="n">
-        <v>379.09</v>
+        <v>379.34</v>
       </c>
       <c r="G333" t="n">
         <v>378.14</v>
@@ -11983,7 +11983,7 @@
         <v>392.63</v>
       </c>
       <c r="F334" t="n">
-        <v>388.76</v>
+        <v>388.67</v>
       </c>
       <c r="G334" t="n">
         <v>384.81</v>
@@ -12019,7 +12019,7 @@
         <v>394.43</v>
       </c>
       <c r="F335" t="n">
-        <v>391.19</v>
+        <v>391.06</v>
       </c>
       <c r="G335" t="n">
         <v>390.87</v>
@@ -12055,7 +12055,7 @@
         <v>396.97</v>
       </c>
       <c r="F336" t="n">
-        <v>381.68</v>
+        <v>381.75</v>
       </c>
       <c r="G336" t="n">
         <v>377.38</v>
@@ -12091,7 +12091,7 @@
         <v>393.37</v>
       </c>
       <c r="F337" t="n">
-        <v>388.22</v>
+        <v>388.28</v>
       </c>
       <c r="G337" t="n">
         <v>389.04</v>
@@ -12127,7 +12127,7 @@
         <v>395.97</v>
       </c>
       <c r="F338" t="n">
-        <v>390.26</v>
+        <v>390.12</v>
       </c>
       <c r="G338" t="n">
         <v>391.58</v>
@@ -12163,7 +12163,7 @@
         <v>399.02</v>
       </c>
       <c r="F339" t="n">
-        <v>381.23</v>
+        <v>381.39</v>
       </c>
       <c r="G339" t="n">
         <v>391.26</v>
@@ -12199,7 +12199,7 @@
         <v>400.31</v>
       </c>
       <c r="F340" t="n">
-        <v>388.88</v>
+        <v>389.02</v>
       </c>
       <c r="G340" t="n">
         <v>394.5</v>
@@ -12235,7 +12235,7 @@
         <v>397.65</v>
       </c>
       <c r="F341" t="n">
-        <v>395.9</v>
+        <v>395.94</v>
       </c>
       <c r="G341" t="n">
         <v>393.81</v>
@@ -12271,7 +12271,7 @@
         <v>396.14</v>
       </c>
       <c r="F342" t="n">
-        <v>392.19</v>
+        <v>392.2</v>
       </c>
       <c r="G342" t="n">
         <v>387.36</v>
@@ -12307,7 +12307,7 @@
         <v>395.81</v>
       </c>
       <c r="F343" t="n">
-        <v>378.76</v>
+        <v>378.81</v>
       </c>
       <c r="G343" t="n">
         <v>390.75</v>
@@ -12343,7 +12343,7 @@
         <v>396.88</v>
       </c>
       <c r="F344" t="n">
-        <v>390.17</v>
+        <v>390.03</v>
       </c>
       <c r="G344" t="n">
         <v>392.32</v>
@@ -12379,7 +12379,7 @@
         <v>392.71</v>
       </c>
       <c r="F345" t="n">
-        <v>379.9</v>
+        <v>379.77</v>
       </c>
       <c r="G345" t="n">
         <v>356.96</v>
@@ -12415,7 +12415,7 @@
         <v>382.74</v>
       </c>
       <c r="F346" t="n">
-        <v>389.19</v>
+        <v>389.32</v>
       </c>
       <c r="G346" t="n">
         <v>378.9</v>
@@ -12451,7 +12451,7 @@
         <v>400.96</v>
       </c>
       <c r="F347" t="n">
-        <v>393.69</v>
+        <v>393.76</v>
       </c>
       <c r="G347" t="n">
         <v>390.5</v>
@@ -12487,7 +12487,7 @@
         <v>388.11</v>
       </c>
       <c r="F348" t="n">
-        <v>386.89</v>
+        <v>386.81</v>
       </c>
       <c r="G348" t="n">
         <v>384.87</v>
@@ -12523,7 +12523,7 @@
         <v>390.73</v>
       </c>
       <c r="F349" t="n">
-        <v>385.9</v>
+        <v>385.79</v>
       </c>
       <c r="G349" t="n">
         <v>386.92</v>
@@ -12559,7 +12559,7 @@
         <v>381.06</v>
       </c>
       <c r="F350" t="n">
-        <v>380.43</v>
+        <v>380.62</v>
       </c>
       <c r="G350" t="n">
         <v>378.06</v>
@@ -12595,7 +12595,7 @@
         <v>391.78</v>
       </c>
       <c r="F351" t="n">
-        <v>389.62</v>
+        <v>389.49</v>
       </c>
       <c r="G351" t="n">
         <v>390.55</v>
@@ -12631,7 +12631,7 @@
         <v>378.94</v>
       </c>
       <c r="F352" t="n">
-        <v>372.28</v>
+        <v>372.4</v>
       </c>
       <c r="G352" t="n">
         <v>377.7</v>
@@ -12667,7 +12667,7 @@
         <v>395.43</v>
       </c>
       <c r="F353" t="n">
-        <v>394.38</v>
+        <v>394.48</v>
       </c>
       <c r="G353" t="n">
         <v>388.96</v>
@@ -12703,7 +12703,7 @@
         <v>380.66</v>
       </c>
       <c r="F354" t="n">
-        <v>381.95</v>
+        <v>382.02</v>
       </c>
       <c r="G354" t="n">
         <v>382.44</v>
@@ -12775,7 +12775,7 @@
         <v>387.94</v>
       </c>
       <c r="F356" t="n">
-        <v>382.43</v>
+        <v>382.53</v>
       </c>
       <c r="G356" t="n">
         <v>377.58</v>
@@ -12811,7 +12811,7 @@
         <v>395.23</v>
       </c>
       <c r="F357" t="n">
-        <v>392.67</v>
+        <v>392.59</v>
       </c>
       <c r="G357" t="n">
         <v>393.6</v>
@@ -12847,7 +12847,7 @@
         <v>376.97</v>
       </c>
       <c r="F358" t="n">
-        <v>395.12</v>
+        <v>395.25</v>
       </c>
       <c r="G358" t="n">
         <v>389.94</v>
@@ -12883,7 +12883,7 @@
         <v>375.95</v>
       </c>
       <c r="F359" t="n">
-        <v>378.78</v>
+        <v>378.84</v>
       </c>
       <c r="G359" t="n">
         <v>377.03</v>
@@ -12919,7 +12919,7 @@
         <v>395.11</v>
       </c>
       <c r="F360" t="n">
-        <v>388.26</v>
+        <v>388.15</v>
       </c>
       <c r="G360" t="n">
         <v>389.42</v>
@@ -12955,7 +12955,7 @@
         <v>399.07</v>
       </c>
       <c r="F361" t="n">
-        <v>393.85</v>
+        <v>393.92</v>
       </c>
       <c r="G361" t="n">
         <v>393.9</v>
@@ -12991,7 +12991,7 @@
         <v>387.59</v>
       </c>
       <c r="F362" t="n">
-        <v>393.37</v>
+        <v>393.54</v>
       </c>
       <c r="G362" t="n">
         <v>378.34</v>
@@ -13027,7 +13027,7 @@
         <v>395.39</v>
       </c>
       <c r="F363" t="n">
-        <v>389.21</v>
+        <v>389.06</v>
       </c>
       <c r="G363" t="n">
         <v>389.04</v>
@@ -13063,7 +13063,7 @@
         <v>394.56</v>
       </c>
       <c r="F364" t="n">
-        <v>390.1</v>
+        <v>389.91</v>
       </c>
       <c r="G364" t="n">
         <v>390.5</v>
@@ -13099,7 +13099,7 @@
         <v>396.42</v>
       </c>
       <c r="F365" t="n">
-        <v>393.76</v>
+        <v>393.72</v>
       </c>
       <c r="G365" t="n">
         <v>391.01</v>
@@ -13129,7 +13129,7 @@
         <v>394.62</v>
       </c>
       <c r="F366" t="n">
-        <v>381.55</v>
+        <v>381.42</v>
       </c>
       <c r="G366" t="n">
         <v>388.07</v>
@@ -13165,7 +13165,7 @@
         <v>388.97</v>
       </c>
       <c r="F367" t="n">
-        <v>375.42</v>
+        <v>375.56</v>
       </c>
       <c r="G367" t="n">
         <v>381.63</v>
@@ -13201,7 +13201,7 @@
         <v>381.71</v>
       </c>
       <c r="F368" t="n">
-        <v>385.23</v>
+        <v>385.31</v>
       </c>
       <c r="G368" t="n">
         <v>378.43</v>
@@ -13237,7 +13237,7 @@
         <v>391.66</v>
       </c>
       <c r="F369" t="n">
-        <v>381.93</v>
+        <v>381.84</v>
       </c>
       <c r="G369" t="n">
         <v>386.06</v>
@@ -17638,7 +17638,7 @@
         <v>0.1847</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1167280085571387</v>
+        <v>0.1178441461826026</v>
       </c>
       <c r="J6" t="n">
         <v>368</v>
@@ -17647,19 +17647,19 @@
         <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0108551165035573</v>
+        <v>0.01107329143853353</v>
       </c>
       <c r="M6" t="n">
-        <v>6.710837024473228</v>
+        <v>6.689361516460127</v>
       </c>
       <c r="N6" t="n">
-        <v>68.39279883875452</v>
+        <v>68.31848208296003</v>
       </c>
       <c r="O6" t="n">
-        <v>8.269993883840213</v>
+        <v>8.26549950595607</v>
       </c>
       <c r="P6" t="n">
-        <v>381.6793457130806</v>
+        <v>381.6702743651271</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-36.72775880094833,175.68958763307646</t>
+          <t>-36.72776015174214,175.6895876774377</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -18071,7 +18071,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-36.72766244432237,175.68958446865156</t>
+          <t>-36.7276613636873,175.6895844331628</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-36.72777483036818,175.6895881594963</t>
+          <t>-36.727774920421105,175.6895881624537</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-36.727693512580466,175.68958548895512</t>
+          <t>-36.727694233003845,175.68958551261434</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-36.72764200230896,175.6895837973223</t>
+          <t>-36.727642902838184,175.68958382689627</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-36.7276469552197,175.68958395997913</t>
+          <t>-36.72764821596063,175.68958400138268</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -18331,7 +18331,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-36.727727282426024,175.6895865979825</t>
+          <t>-36.727726201790965,175.6895865624936</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-36.72786947598661,175.68959126774806</t>
+          <t>-36.72786983619829,175.68959127957777</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-36.72763200643453,175.68958346905143</t>
+          <t>-36.72763236664623,175.689583480881</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -18507,7 +18507,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-36.72761975923703,175.6895830668459</t>
+          <t>-36.727619939342866,175.68958307276068</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-36.72757482282822,175.68958159110858</t>
+          <t>-36.7275740123519,175.6895815644921</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-36.727741150575866,175.68958705342362</t>
+          <t>-36.72774169089339,175.6895870711681</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-36.72777149841013,175.6895880500719</t>
+          <t>-36.727772308886415,175.68958807668866</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -18715,7 +18715,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-36.727674151202244,175.6895848531136</t>
+          <t>-36.72767262030258,175.68958480283777</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -18815,7 +18815,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-36.727617597966855,175.68958299586845</t>
+          <t>-36.72761633722594,175.68958295446495</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-36.727696934591506,175.68958560133646</t>
+          <t>-36.72769765501488,175.6895856249957</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-36.72764794580185,175.68958399251048</t>
+          <t>-36.72764866622523,175.68958401616965</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-36.72764821596063,175.68958400138268</t>
+          <t>-36.727649746860294,175.68958405165844</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-36.72778131417844,175.6895883724303</t>
+          <t>-36.72778104401968,175.68958836355804</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -19075,7 +19075,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-36.72770467914276,175.68958585567327</t>
+          <t>-36.7277040487723,175.68958583497147</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -19127,7 +19127,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-36.72770476919568,175.6895858586307</t>
+          <t>-36.72770557967197,175.68958588524734</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-36.72763831013913,175.68958367606908</t>
+          <t>-36.727639120615436,175.68958370268564</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -19223,7 +19223,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-36.72770774094208,175.6895859562251</t>
+          <t>-36.727709001682975,175.68958599762877</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-36.7276699187149,175.68958471411577</t>
+          <t>-36.72767036897953,175.68958472890276</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-36.72761948907824,175.68958305797372</t>
+          <t>-36.72762047966039,175.689583090505</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-36.727708011100844,175.6895859650973</t>
+          <t>-36.727706300095335,175.68958590890657</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-36.72770539956613,175.68958587933253</t>
+          <t>-36.72770684041287,175.689585926651</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-36.727634167704686,175.6895835400289</t>
+          <t>-36.7276354284456,175.68958358143243</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-36.727596075318196,175.68958228905205</t>
+          <t>-36.72759553500065,175.68958227130773</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -19587,7 +19587,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-36.72768855966977,175.6895853262979</t>
+          <t>-36.727688379563936,175.6895853203831</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-36.72780914053074,175.68958928627282</t>
+          <t>-36.72780986095408,175.68958930993216</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-36.72774502285146,175.68958718059233</t>
+          <t>-36.72774556316899,175.6895871983368</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-36.72763731955696,175.68958364353773</t>
+          <t>-36.72763840019206,175.6895836790265</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -19783,7 +19783,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-36.72760165859945,175.68958247241022</t>
+          <t>-36.72760201881115,175.68958248423976</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-36.72784975439737,175.68959062007113</t>
+          <t>-36.72784966434446,175.68959061711374</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -19883,7 +19883,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-36.72764641490216,175.68958394223475</t>
+          <t>-36.72764569447878,175.68958391857555</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -19935,7 +19935,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-36.72772016824524,175.68958636434726</t>
+          <t>-36.72772079861569,175.6895863850491</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-36.72769036072821,175.68958538544598</t>
+          <t>-36.727691081151576,175.6895854091052</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -20027,7 +20027,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-36.727760602006754,175.68958769222473</t>
+          <t>-36.727759251212944,175.68958764786353</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-36.72760742198654,175.6895826616832</t>
+          <t>-36.727608412568706,175.6895826942145</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-36.72767820358374,175.68958498619665</t>
+          <t>-36.72767838368959,175.68958499211146</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -20183,7 +20183,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-36.7276421824148,175.6895838032371</t>
+          <t>-36.72764236252065,175.6895838091519</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -20235,7 +20235,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-36.72762687341793,175.68958330047997</t>
+          <t>-36.727626152994546,175.68958327682083</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -20275,7 +20275,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-36.72768171564771,175.68958510153533</t>
+          <t>-36.727682526124006,175.68958512815192</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-36.72773169501916,175.68958674289556</t>
+          <t>-36.72773007406658,175.6895866896622</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-36.72758220716797,175.68958183361428</t>
+          <t>-36.72758139669164,175.6895818069978</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-36.727815804446784,175.68958950512203</t>
+          <t>-36.72781553428802,175.68958949624974</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-36.7276517280246,175.68958411672116</t>
+          <t>-36.72765325892428,175.68958416699692</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-36.7276878392464,175.68958530263868</t>
+          <t>-36.727687388981785,175.68958528785168</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -20575,7 +20575,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-36.72771620591671,175.68958623422128</t>
+          <t>-36.727714765069955,175.68958618690277</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-36.727771408357206,175.6895880471145</t>
+          <t>-36.72777068793384,175.68958802345517</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -20719,7 +20719,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-36.72762336135394,175.6895831851416</t>
+          <t>-36.727624351936086,175.68958321767292</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -20755,7 +20755,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-36.72757266155804,175.6895815201313</t>
+          <t>-36.727571580922955,175.68958148464267</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -20807,7 +20807,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-36.72762768389424,175.6895833270965</t>
+          <t>-36.72762795405301,175.68958333596868</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -20859,7 +20859,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-36.72759364388926,175.68958220920254</t>
+          <t>-36.727592833412956,175.68958218258604</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -20911,7 +20911,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-36.72774547311607,175.68958719537937</t>
+          <t>-36.7277443024281,175.68958715693302</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-36.727661453740225,175.68958443612019</t>
+          <t>-36.727661904004826,175.68958445090718</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -21047,7 +21047,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-36.72766829776231,175.68958466088256</t>
+          <t>-36.72766910823861,175.68958468749915</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -21099,7 +21099,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-36.72779284095222,175.6895887509798</t>
+          <t>-36.72779329121683,175.68958876576687</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -21143,7 +21143,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-36.72783381503067,175.68959009660674</t>
+          <t>-36.72783408518943,175.689590105479</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -21195,7 +21195,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-36.727732865707125,175.6895867813419</t>
+          <t>-36.727731875125,175.68958674881037</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -21247,7 +21247,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-36.727820397145685,175.68958965595056</t>
+          <t>-36.727819676722326,175.6895896322912</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -21299,7 +21299,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-36.727778342432075,175.68958827483553</t>
+          <t>-36.727776721479515,175.68958822160204</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -21351,7 +21351,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-36.72769144136327,175.6895854209348</t>
+          <t>-36.72769252199832,175.68958545642366</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-36.7277027880314,175.68958579356777</t>
+          <t>-36.72770350845477,175.689585817227</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -21487,7 +21487,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-36.727574192457745,175.68958157040686</t>
+          <t>-36.72757338198143,175.6895815437904</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-36.72760634135146,175.68958262619452</t>
+          <t>-36.727607241880705,175.68958265576842</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-36.727626062941624,175.6895832738634</t>
+          <t>-36.72762471214779,175.68958322950252</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -21639,7 +21639,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-36.72762768389424,175.6895833270965</t>
+          <t>-36.727628134158856,175.68958334188346</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-36.727707470783336,175.68958594735287</t>
+          <t>-36.72770684041287,175.689585926651</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -21771,7 +21771,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-36.727714945175805,175.6895861928176</t>
+          <t>-36.72771521533457,175.68958620168982</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-36.72778473618941,175.68958848481213</t>
+          <t>-36.72778500634817,175.68958849368443</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-36.727743491951806,175.68958713031634</t>
+          <t>-36.72774196105215,175.68958708004035</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -21927,7 +21927,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-36.727682255965235,175.68958511927974</t>
+          <t>-36.727681175330176,175.6895850837909</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-36.72769252199832,175.68958545642366</t>
+          <t>-36.72769189162788,175.68958543572185</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-36.72776042190091,175.6895876863099</t>
+          <t>-36.727760872165504,175.68958770109697</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-36.727746373645275,175.6895872249535</t>
+          <t>-36.727744482533936,175.68958716284783</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-36.7278772205376,175.6895915220871</t>
+          <t>-36.72787731059052,175.68959152504453</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -22199,7 +22199,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-36.72779824412742,175.68958892842494</t>
+          <t>-36.727798874497864,175.68958894912686</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -22235,7 +22235,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-36.72772341015041,175.68958647081394</t>
+          <t>-36.72772277977996,175.68958645011207</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -22283,7 +22283,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-36.727580856374104,175.68958178925345</t>
+          <t>-36.72757950558026,175.68958174489265</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-36.7276525385009,175.68958414333775</t>
+          <t>-36.72765424950642,175.6895841995283</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -22387,7 +22387,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-36.72769459321553,175.68958552444394</t>
+          <t>-36.72769576390352,175.68958556289022</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-36.72774970560336,175.68958733437776</t>
+          <t>-36.72775015586795,175.6895873491648</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -22491,7 +22491,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-36.7277040487723,175.68958583497147</t>
+          <t>-36.72770539956613,175.68958587933253</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -22543,7 +22543,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-36.727691081151576,175.6895854091052</t>
+          <t>-36.72769144136327,175.6895854209348</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -22683,7 +22683,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-36.72769198168079,175.68958543867925</t>
+          <t>-36.727692882210015,175.68958546825328</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -22735,7 +22735,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-36.72779049957629,175.6895886740869</t>
+          <t>-36.72778986920585,175.689588653385</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -22787,7 +22787,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-36.72770548961904,175.68958588228995</t>
+          <t>-36.72770467914276,175.68958585567327</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-36.72760652145731,175.6895826321093</t>
+          <t>-36.727606971721926,175.68958264689624</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>-36.727796443069025,175.68958886927655</t>
+          <t>-36.72779473206354,175.68958881308558</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -22943,7 +22943,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-36.727644433737865,175.68958387717203</t>
+          <t>-36.7276425426265,175.6895838150667</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>-36.72770476919568,175.6895858586307</t>
+          <t>-36.72770521946028,175.6895858734177</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -23047,7 +23047,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>-36.7277995048683,175.6895889698288</t>
+          <t>-36.72779833418035,175.68958893138236</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>-36.727632276593305,175.68958347792363</t>
+          <t>-36.72763272685792,175.6895834927106</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>-36.72780013523873,175.68958899053075</t>
+          <t>-36.72779941481537,175.68958896687138</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-36.72756113478378,175.68958114158607</t>
+          <t>-36.72755987404283,175.68958110018266</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>-36.72773088454286,175.68958671627885</t>
+          <t>-36.72772935364321,175.68958666600292</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-36.72771368443491,175.6895861514139</t>
+          <t>-36.727714314805354,175.68958617211575</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -23427,7 +23427,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>-36.72781094158913,175.68958934542124</t>
+          <t>-36.727810851536184,175.6895893424638</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -23479,7 +23479,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>-36.72768540781751,175.68958522278882</t>
+          <t>-36.72768666855842,175.68958526419243</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -23531,7 +23531,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>-36.72769810527948,175.68958563978273</t>
+          <t>-36.72769918591454,175.6895856752716</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -23583,7 +23583,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>-36.72773331597173,175.68958679612894</t>
+          <t>-36.72773376623635,175.68958681091598</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -23635,7 +23635,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>-36.72784669259812,175.68959051951865</t>
+          <t>-36.72784678265105,175.68959052247604</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-36.72763020537608,175.68958340990355</t>
+          <t>-36.727630295429,175.6895834128609</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -23739,7 +23739,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>-36.72782670085005,175.6895898629702</t>
+          <t>-36.727827781485075,175.68958989845927</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -23791,7 +23791,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>-36.72775799047206,175.68958760645972</t>
+          <t>-36.72775727004869,175.6895875828004</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -23843,7 +23843,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>-36.72765695109409,175.68958428825024</t>
+          <t>-36.72765713119994,175.68958429416506</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-36.727722869832874,175.6895864530695</t>
+          <t>-36.72772214940951,175.6895864294102</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -23947,7 +23947,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>-36.72769045078113,175.68958538840337</t>
+          <t>-36.72769198168079,175.68958543867925</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>-36.72778941894126,175.68958863859788</t>
+          <t>-36.72778770793578,175.6895885824069</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>-36.727693422527544,175.68958548599772</t>
+          <t>-36.72769504348014,175.68958553923096</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -24159,7 +24159,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>-36.72769756496195,175.6895856220383</t>
+          <t>-36.727698645597,175.68958565752715</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>-36.72756725838261,175.6895813426882</t>
+          <t>-36.7275657274829,175.68958129241264</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -24259,7 +24259,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>-36.72767739310745,175.68958495958003</t>
+          <t>-36.72767577215485,175.68958490634682</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -24311,7 +24311,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>-36.72777257904517,175.6895880855609</t>
+          <t>-36.72777392983898,175.68958812992213</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-36.72769837543824,175.68958564865494</t>
+          <t>-36.72769909586162,175.68958567231417</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -24411,7 +24411,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-36.72776978740463,175.68958799388102</t>
+          <t>-36.727770507828,175.68958801754033</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-36.72778707756534,175.689588561705</t>
+          <t>-36.72778662730074,175.68958854691792</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -24515,7 +24515,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>-36.727802476614656,175.68958906742367</t>
+          <t>-36.727800855662096,175.6895890141901</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>-36.727601208334825,175.68958245762326</t>
+          <t>-36.72760057796437,175.68958243692154</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-36.727568429070615,175.6895813811342</t>
+          <t>-36.72756671806507,175.6895813249439</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -24659,7 +24659,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-36.7276465049551,175.68958394519214</t>
+          <t>-36.72764758559016,175.6895839806809</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>-36.72766883807984,175.68958467862697</t>
+          <t>-36.72767000876783,175.68958471707316</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -24751,7 +24751,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>-36.72759049203694,175.68958210569394</t>
+          <t>-36.72759058208987,175.68958210865134</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>-36.72762660325916,175.68958329160776</t>
+          <t>-36.72762651320623,175.6895832886504</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -24851,7 +24851,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>-36.72761354558532,175.6895828627858</t>
+          <t>-36.72761345553239,175.68958285982842</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>-36.72777942306712,175.68958831032455</t>
+          <t>-36.72777816232624,175.6895882689207</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -24951,7 +24951,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-36.72764380336741,175.68958385647025</t>
+          <t>-36.72764551437294,175.68958391266077</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-36.72769972623207,175.689585693016</t>
+          <t>-36.727698015226565,175.6895856368253</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -25043,7 +25043,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>-36.727651007601224,175.689584093062</t>
+          <t>-36.72765217828921,175.68958413150818</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>-36.727688109405165,175.6895853115109</t>
+          <t>-36.72768720887594,175.68958528193687</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -25147,7 +25147,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>-36.727815804446784,175.68958950512203</t>
+          <t>-36.72781445365298,175.6895894607607</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-36.72767748316038,175.68958496253745</t>
+          <t>-36.7276788339542,175.68958500689848</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>-36.7276907209399,175.6895853972756</t>
+          <t>-36.72769135131035,175.68958541797744</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -25303,7 +25303,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>-36.727625882835774,175.68958326794862</t>
+          <t>-36.727626783365004,175.68958329752257</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -25355,7 +25355,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>-36.7276613636873,175.6895844331628</t>
+          <t>-36.72766271448113,175.68958447752377</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -25407,7 +25407,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-36.727692341892485,175.68958545050884</t>
+          <t>-36.72769045078113,175.68958538840337</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -25459,7 +25459,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>-36.72762534251824,175.68958325020427</t>
+          <t>-36.72762642315331,175.68958328569298</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>-36.72762345140686,175.68958318809902</t>
+          <t>-36.72762309119517,175.68958317626945</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>-36.727749795656266,175.68958733733515</t>
+          <t>-36.727749885709194,175.68958734029258</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-36.72760048791144,175.68958243396412</t>
+          <t>-36.72759976748806,175.68958241030504</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-36.72756788875307,175.6895813633899</t>
+          <t>-36.72756689817092,175.68958133085866</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -25719,7 +25719,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>-36.727722869832874,175.6895864530695</t>
+          <t>-36.72772115882737,175.68958639687872</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -25771,7 +25771,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>-36.727742051105075,175.68958708299775</t>
+          <t>-36.72774178094631,175.6895870741255</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>-36.72762642315331,175.68958328569298</t>
+          <t>-36.72762651320623,175.6895832886504</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -25875,7 +25875,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>-36.727825530162086,175.68958982452367</t>
+          <t>-36.72782679090297,175.68958986592764</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-36.727937736098525,175.6895935094841</t>
+          <t>-36.72793935705104,175.68959356271804</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>-36.72770711057165,175.68958593552324</t>
+          <t>-36.72770602993658,175.6895859000344</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>-36.72779491216939,175.68958881900042</t>
+          <t>-36.72779599280443,175.68958885448947</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -26083,7 +26083,7 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>-36.727606791616076,175.68958264098148</t>
+          <t>-36.72760742198654,175.6895826616832</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -26127,7 +26127,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-36.72772332009749,175.68958646785651</t>
+          <t>-36.72772223946243,175.68958643236763</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-36.72775754020744,175.68958759167268</t>
+          <t>-36.727758080524964,175.68958760941715</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-36.72771998813939,175.68958635843245</t>
+          <t>-36.72771971798063,175.6895863495602</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>-36.72773412644803,175.6895868227456</t>
+          <t>-36.727732415442524,175.68958676655484</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -26335,7 +26335,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-36.727624532041936,175.68958322358773</t>
+          <t>-36.727625612677016,175.68958325907644</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -26387,7 +26387,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-36.72779941481537,175.68958896687138</t>
+          <t>-36.72780076560918,175.6895890112327</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>-36.727691261257426,175.68958541502002</t>
+          <t>-36.72769054083405,175.6895853913608</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -26491,7 +26491,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>-36.72766361501034,175.68958450709775</t>
+          <t>-36.72766451553958,175.68958453667176</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-36.72758571923199,175.6895819489524</t>
+          <t>-36.727584998808595,175.68958192529328</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>-36.72779815407451,175.68958892546752</t>
+          <t>-36.727797793862834,175.68958891363783</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -26727,7 +26727,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>-36.72762903468808,175.68958337145742</t>
+          <t>-36.72762921479393,175.6895833773722</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -26779,7 +26779,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>-36.72766271448113,175.68958447752377</t>
+          <t>-36.727661453740225,175.68958443612019</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -26827,7 +26827,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>-36.7278849650886,175.68959177642628</t>
+          <t>-36.72788613577654,175.6895918148729</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>-36.72779167026426,175.68958871253335</t>
+          <t>-36.72779311111098,175.68958875985203</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>-36.727816074605535,175.68958951399426</t>
+          <t>-36.727816795028886,175.68958953765366</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -26983,7 +26983,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>-36.727702968137244,175.6895857994826</t>
+          <t>-36.72770224771388,175.68958577582333</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -27035,7 +27035,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>-36.72767955437757,175.68958503055768</t>
+          <t>-36.72767766326622,175.68958496845224</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -27087,7 +27087,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-36.72770981215928,175.68958602424541</t>
+          <t>-36.727710892794335,175.6895860597343</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>-36.727682255965235,175.68958511927974</t>
+          <t>-36.72768216591232,175.68958511632232</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -27191,7 +27191,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>-36.72761327542654,175.68958285391363</t>
+          <t>-36.72761345553239,175.68958285982842</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>-36.72779248074055,175.6895887391501</t>
+          <t>-36.72779329121683,175.68958876576687</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-36.727614806326244,175.6895829041893</t>
+          <t>-36.727615076485016,175.68958291306149</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>-36.72783777735912,175.68959022673343</t>
+          <t>-36.72783660667117,175.6895901882869</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -27487,7 +27487,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>-36.72766613649218,175.68958458990497</t>
+          <t>-36.72766748728601,175.68958463426597</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -27539,7 +27539,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-36.727851375349914,175.68959067330485</t>
+          <t>-36.727850114609055,175.68959063190087</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -27591,7 +27591,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-36.72779049957629,175.6895886740869</t>
+          <t>-36.727790139364615,175.68958866225722</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -27643,7 +27643,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>-36.727710622635584,175.6895860508621</t>
+          <t>-36.727708641471295,175.68958598579914</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -27695,7 +27695,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-36.7277187273985,175.68958631702873</t>
+          <t>-36.72771683628716,175.68958625492317</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -27747,7 +27747,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>-36.727759071107094,175.6895876419487</t>
+          <t>-36.72775943131878,175.68958765377835</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-36.727607602092384,175.689582667598</t>
+          <t>-36.727607241880705,175.68958265576842</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>-36.727668207709385,175.68958465792517</t>
+          <t>-36.72766730718017,175.68958462835116</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>-36.72781175206539,175.68958937203803</t>
+          <t>-36.72781058137745,175.68958933359156</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -27939,7 +27939,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>-36.72762417183024,175.68958321175813</t>
+          <t>-36.72762552262409,175.68958325611905</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>-36.72769594400936,175.689585568805</t>
+          <t>-36.727694052897995,175.68958550669953</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -28043,7 +28043,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>-36.72761786812563,175.68958300474065</t>
+          <t>-36.727618858707785,175.68958303727194</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>-36.72762183045423,175.68958313486593</t>
+          <t>-36.72762318124809,175.68958317922682</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>-36.72772440073254,175.68958650334542</t>
+          <t>-36.727723500203325,175.68958647377133</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -28247,7 +28247,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>-36.72775672973117,175.68958756505594</t>
+          <t>-36.72775799047206,175.68958760645972</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>-36.72760273923453,175.6895825078989</t>
+          <t>-36.7276018387053,175.68958247832498</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>-36.72775681978408,175.68958756801337</t>
+          <t>-36.727755288884424,175.68958751773735</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -28403,7 +28403,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>-36.72776132243011,175.68958771588404</t>
+          <t>-36.72775916116001,175.6895876449061</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>-36.72765794167625,175.68958432078162</t>
+          <t>-36.72765893225839,175.68958435331302</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -28507,7 +28507,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>-36.72764524421418,175.68958390378856</t>
+          <t>-36.727644793949565,175.6895838890016</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-36.72772061850985,175.68958637913428</t>
+          <t>-36.72772151903906,175.68958640870835</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>-36.72774502285146,175.68958718059233</t>
+          <t>-36.727743582004734,175.68958713327376</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -28663,7 +28663,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>-36.72773610761229,175.68958688780864</t>
+          <t>-36.72773538718893,175.68958686414936</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -28715,7 +28715,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>-36.7277144949112,175.68958617803057</t>
+          <t>-36.727713594381974,175.6895861484565</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-36.72782967259639,175.6895899605652</t>
+          <t>-36.727828591961355,175.6895899250761</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -28819,7 +28819,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>-36.7276469552197,175.68958395997913</t>
+          <t>-36.727648486119385,175.68958401025486</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -28871,7 +28871,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>-36.72752295234383,175.6895798876565</t>
+          <t>-36.72752124133825,175.6895798314663</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>-36.72761003352131,175.68958274744753</t>
+          <t>-36.72761111415639,175.68958278293624</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -28971,7 +28971,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>-36.72758445849105,175.68958190754896</t>
+          <t>-36.72758436843813,175.68958190459156</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -29023,7 +29023,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-36.727673070567185,175.6895848176248</t>
+          <t>-36.72767316062011,175.68958482058218</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -29075,7 +29075,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-36.727719177663104,175.68958633181575</t>
+          <t>-36.72772052845693,175.6895863761769</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -29127,7 +29127,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-36.727794461904786,175.68958880421332</t>
+          <t>-36.727795632592745,175.6895888426598</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -29179,7 +29179,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>-36.72778113407261,175.68958836651547</t>
+          <t>-36.7277797832788,175.6895883221542</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -29219,7 +29219,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>-36.72776906698128,175.6895879702217</t>
+          <t>-36.72777032772216,175.68958801162552</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -29271,7 +29271,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-36.72770314824309,175.68958580539737</t>
+          <t>-36.7277027880314,175.68958579356777</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -29323,7 +29323,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>-36.727666856915555,175.68958461356416</t>
+          <t>-36.72766748728601,175.68958463426597</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -29375,7 +29375,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>-36.727642632679434,175.6895838180241</t>
+          <t>-36.72764236252065,175.6895838091519</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>-36.7277259316322,175.68958655362138</t>
+          <t>-36.72772530126175,175.6895865329195</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>-36.72774277152844,175.68958710665703</t>
+          <t>-36.72774142073462,175.68958706229589</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -29531,7 +29531,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-36.72765262855383,175.68958414629515</t>
+          <t>-36.7276537992418,175.6895841847413</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -29583,7 +29583,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-36.72778356550145,175.68958844636572</t>
+          <t>-36.72778428592481,175.68958847002506</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -29687,7 +29687,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-36.727615616802545,175.68958293080584</t>
+          <t>-36.72761525659086,175.68958291897624</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -29739,7 +29739,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>-36.72770215766094,175.68958577286594</t>
+          <t>-36.72770107702589,175.6895857373771</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>-36.727754928672745,175.6895875059077</t>
+          <t>-36.727753487826014,175.68958745858907</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-36.72766010294637,175.68958439175918</t>
+          <t>-36.727661453740225,175.68958443612019</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -29919,7 +29919,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>-36.72761408590286,175.68958288053017</t>
+          <t>-36.72761399584993,175.68958287757278</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>-36.727664065274965,175.68958452188477</t>
+          <t>-36.72766559617464,175.68958457216056</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -30047,7 +30047,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>-36.72761147436809,175.6895827947658</t>
+          <t>-36.727610123574244,175.68958275040495</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -30099,7 +30099,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>-36.727686128240876,175.68958524644802</t>
+          <t>-36.727684867499974,175.6895852050444</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -30151,7 +30151,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>-36.72766010294637,175.68958439175918</t>
+          <t>-36.727661453740225,175.68958443612019</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -30203,7 +30203,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>-36.72764821596063,175.68958400138268</t>
+          <t>-36.727649206542765,175.68958403391406</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -30255,7 +30255,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>-36.727642632679434,175.6895838180241</t>
+          <t>-36.72764353320865,175.68958384759804</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -30299,7 +30299,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>-36.727759251212944,175.68958764786353</t>
+          <t>-36.72775835068373,175.68958761828938</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -30351,7 +30351,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>-36.72771719649883,175.6895862667528</t>
+          <t>-36.72771647607547,175.68958624309354</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -30403,7 +30403,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>-36.727778342432075,175.68958827483553</t>
+          <t>-36.72777852253791,175.68958828075037</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -30455,7 +30455,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>-36.72758860092555,175.6895820435888</t>
+          <t>-36.72758725013169,175.68958199922798</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -30507,7 +30507,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>-36.72762417183024,175.68958321175813</t>
+          <t>-36.7276248022007,175.6895832324599</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -30559,7 +30559,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>-36.72766604643925,175.68958458694755</t>
+          <t>-36.727666766862626,175.68958461060674</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>-36.727592203042484,175.68958216188432</t>
+          <t>-36.72759094230155,175.6895821204809</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -30663,7 +30663,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>-36.727722059356594,175.6895864264528</t>
+          <t>-36.72772061850985,175.68958637913428</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -30707,7 +30707,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>-36.72768216591232,175.68958511632232</t>
+          <t>-36.72768234601816,175.68958512223713</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -30759,7 +30759,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>-36.727778792696675,175.6895882896226</t>
+          <t>-36.72777942306712,175.68958831032455</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -30811,7 +30811,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>-36.72769396284508,175.68958550374214</t>
+          <t>-36.72769549374475,175.689585554018</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -30863,7 +30863,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>-36.727645604425874,175.6895839156182</t>
+          <t>-36.72764353320865,175.68958384759804</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>-36.72761003352131,175.68958274744753</t>
+          <t>-36.7276095832567,175.68958273266057</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>-36.72779977502705,175.68958897870107</t>
+          <t>-36.72780067555626,175.68958900827525</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -31019,7 +31019,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>-36.72768216591232,175.68958511632232</t>
+          <t>-36.727683066441536,175.68958514589633</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -31071,7 +31071,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>-36.72764902643692,175.68958402799925</t>
+          <t>-36.72765010707199,175.689584063488</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -31123,7 +31123,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>-36.72773736835318,175.6895869292124</t>
+          <t>-36.727735477241836,175.68958686710675</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -31175,7 +31175,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>-36.727622460824705,175.68958315556768</t>
+          <t>-36.72762309119517,175.68958317626945</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -31227,7 +31227,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>-36.72766082336976,175.6895844154184</t>
+          <t>-36.727660643263924,175.6895844095036</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -31279,7 +31279,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>-36.72762201056009,175.6895831407807</t>
+          <t>-36.727621920507175,175.68958313782332</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>-36.72765722125287,175.68958429712245</t>
+          <t>-36.72765875215255,175.6895843473982</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -31383,7 +31383,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>-36.72773664792981,175.6895869055531</t>
+          <t>-36.72773520708308,175.68958685823455</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -31419,7 +31419,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>-36.72776303343561,175.68958777207493</t>
+          <t>-36.72776105227134,175.68958770701178</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -31471,7 +31471,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>-36.72775717999576,175.68958757984302</t>
+          <t>-36.72775609936072,175.68958754435405</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -31523,7 +31523,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>-36.72767478157271,175.6895848738154</t>
+          <t>-36.72767586220777,175.68958490930422</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>-36.72770062676128,175.68958572259004</t>
+          <t>-36.727700806867134,175.68958572850485</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -31623,7 +31623,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>-36.7277691570342,175.6895879731791</t>
+          <t>-36.72776951724588,175.68958798500879</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -31675,7 +31675,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>-36.72772854316691,175.68958663938622</t>
+          <t>-36.72772791279647,175.6895866186844</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -31727,7 +31727,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>-36.72774015999373,175.6895870208921</t>
+          <t>-36.727740880417095,175.68958704455142</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -31779,7 +31779,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>-36.72775510877859,175.6895875118225</t>
+          <t>-36.72775546899027,175.68958752365216</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -31867,7 +31867,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>-36.72760832251578,175.6895826912571</t>
+          <t>-36.72760814240993,175.68958268534232</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>-36.72766937839738,175.68958469637136</t>
+          <t>-36.7276694684503,175.68958469932875</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -32023,7 +32023,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>-36.72759895701174,175.68958238368853</t>
+          <t>-36.727598506747135,175.68958236890157</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -32075,7 +32075,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>-36.727797613756984,175.689588907723</t>
+          <t>-36.72779824412742,175.68958892842494</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -32119,7 +32119,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>-36.72757437256359,175.68958157632167</t>
+          <t>-36.72757311182267,175.68958153491823</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -32171,7 +32171,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>-36.727650377230766,175.68958407236022</t>
+          <t>-36.72765190813045,175.68958412263598</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -32211,7 +32211,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>-36.727767265922864,175.6895879110734</t>
+          <t>-36.72776663555242,175.68958789037148</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -32247,7 +32247,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>-36.727788158200376,175.68958859719405</t>
+          <t>-36.7277886985179,175.68958861493854</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -32299,7 +32299,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>-36.72773943957038,175.68958699723282</t>
+          <t>-36.727738539041155,175.68958696765873</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>-36.72780760963109,175.68958923599664</t>
+          <t>-36.72780733947232,175.6895892271244</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -32431,7 +32431,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>-36.72762255087762,175.68958315852507</t>
+          <t>-36.7276236315127,175.68958319401378</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -32483,7 +32483,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>-36.72778761788286,175.68958857944952</t>
+          <t>-36.7277886985179,175.68958861493854</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -32535,7 +32535,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>-36.72773259554836,175.68958677246965</t>
+          <t>-36.72773205523084,175.6895867547252</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -32575,7 +32575,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>-36.72757491288114,175.68958159406597</t>
+          <t>-36.72757266155804,175.6895815201313</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -32627,7 +32627,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>-36.72780706931357,175.6895892182521</t>
+          <t>-36.727804817990574,175.68958914431659</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>-36.727696394273956,175.68958558359205</t>
+          <t>-36.72769747490903,175.6895856190809</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -32783,7 +32783,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>-36.72777960317296,175.68958831623937</t>
+          <t>-36.727779693225884,175.6895883191968</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>-36.72773025417242,175.68958669557702</t>
+          <t>-36.72772953374905,175.68958667191774</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -32883,7 +32883,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>-36.727716746234236,175.68958625196575</t>
+          <t>-36.72771602581085,175.6895862283065</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -32935,7 +32935,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>-36.72760066801728,175.68958243987893</t>
+          <t>-36.72760156854653,175.6895824694528</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>-36.72764704527262,175.6895839629365</t>
+          <t>-36.72764758559016,175.6895839806809</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -33035,7 +33035,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>-36.72770008644376,175.68958570484563</t>
+          <t>-36.72769927596745,175.68958567822898</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -33083,7 +33083,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>-36.72763713945113,175.68958363762295</t>
+          <t>-36.72763560855145,175.68958358734722</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>-36.727337713474306,175.68957380435805</t>
+          <t>-36.72733825379188,175.68957382210218</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -33199,7 +33199,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>-36.72773628771813,175.68958689372346</t>
+          <t>-36.727735567294765,175.68958687006418</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>-36.72762579278286,175.68958326499123</t>
+          <t>-36.727626963470854,175.68958330343736</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -33295,7 +33295,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>-36.72758139669164,175.6895818069978</t>
+          <t>-36.72758112653288,175.68958179812563</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>-36.727604360187144,175.6895825611319</t>
+          <t>-36.72760427013423,175.68958255817455</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -33399,7 +33399,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>-36.727671629720426,175.68958477030637</t>
+          <t>-36.72767289046134,175.68958481170998</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -33451,7 +33451,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>-36.72765695109409,175.68958428825024</t>
+          <t>-36.727655150035645,175.6895842291023</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -33503,7 +33503,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>-36.727692341892485,175.68958545050884</t>
+          <t>-36.72769360263339,175.6895854919125</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -33555,7 +33555,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>-36.727701257131734,175.6895857432919</t>
+          <t>-36.72770008644376,175.68958570484563</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>-36.72757239139927,175.68958151125915</t>
+          <t>-36.72757113065833,175.68958146985577</t>
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
@@ -33639,7 +33639,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>-36.727607962304084,175.68958267942756</t>
+          <t>-36.72760733193361,175.6895826587258</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -33727,7 +33727,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>-36.727629845164394,175.68958339807398</t>
+          <t>-36.72763056558777,175.68958342173312</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>-36.72774934539165,175.6895873225481</t>
+          <t>-36.72775051607964,175.68958736099447</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -33863,7 +33863,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>-36.727834625506944,175.68959012322355</t>
+          <t>-36.72783534593031,175.68959014688295</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>-36.72767685278991,175.68958494183562</t>
+          <t>-36.72767613236655,175.68958491817642</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -33967,7 +33967,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>-36.72776681565826,175.68958789628633</t>
+          <t>-36.72776627534074,175.68958787854183</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>-36.727598056482506,175.68958235411463</t>
+          <t>-36.72759832664128,175.68958236298678</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -34071,7 +34071,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>-36.727698825702845,175.68958566344196</t>
+          <t>-36.72769873564993,175.68958566048454</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -34123,7 +34123,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>-36.727637589715755,175.68958365240994</t>
+          <t>-36.727635698604374,175.6895835903046</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -34175,7 +34175,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>-36.72769477332138,175.68958553035876</t>
+          <t>-36.72769378273924,175.68958549782732</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -34227,7 +34227,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>-36.727767896293315,175.68958793177532</t>
+          <t>-36.72776636539367,175.68958788149925</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -34279,7 +34279,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>-36.72773295576004,175.68958678429928</t>
+          <t>-36.72773070443703,175.68958671036404</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -34331,7 +34331,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>-36.727645874584624,175.68958392449036</t>
+          <t>-36.72764668506094,175.68958395110693</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -34383,7 +34383,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>-36.727623991724386,175.68958320584335</t>
+          <t>-36.727625162412394,175.68958324428948</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>-36.72770963205344,175.6895860183306</t>
+          <t>-36.727709001682975,175.68958599762877</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>-36.72765073744245,175.68958408418982</t>
+          <t>-36.727650197124916,175.68958406644543</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -34539,7 +34539,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>-36.72763236664623,175.689583480881</t>
+          <t>-36.72763362738715,175.68958352228452</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -34591,7 +34591,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>-36.72771368443491,175.6895861514139</t>
+          <t>-36.72771224358816,175.68958610409538</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -34643,7 +34643,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>-36.727644793949565,175.6895838890016</t>
+          <t>-36.72764353320865,175.68958384759804</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -34695,7 +34695,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>-36.72758157679749,175.68958181291256</t>
+          <t>-36.727581216585804,175.68958180108302</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -34747,7 +34747,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>-36.72761498643209,175.6895829101041</t>
+          <t>-36.727614896379166,175.6895829071467</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -34799,7 +34799,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>-36.727735927506444,175.68958688189383</t>
+          <t>-36.727735477241836,175.68958686710675</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -34851,7 +34851,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>-36.727633177122534,175.68958350749756</t>
+          <t>-36.72763443786345,175.68958354890108</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -34903,7 +34903,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>-36.72772566147343,175.68958654474915</t>
+          <t>-36.727726832161416,175.68958658319548</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -34955,7 +34955,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>-36.72764200230896,175.6895837973223</t>
+          <t>-36.72764083162095,175.68958375887615</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>-36.7276014784936,175.68958246649544</t>
+          <t>-36.72760084812314,175.68958244579372</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -35059,7 +35059,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>-36.72766271448113,175.68958447752377</t>
+          <t>-36.727663434904514,175.68958450118296</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -35111,7 +35111,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>-36.727671629720426,175.68958477030637</t>
+          <t>-36.72767262030258,175.68958480283777</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>-36.727720888668614,175.68958638800652</t>
+          <t>-36.727719177663104,175.68958633181575</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -35215,7 +35215,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>-36.727638130033284,175.6895836701543</t>
+          <t>-36.727639300721286,175.68958370860042</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>-36.72779428179895,175.68958879829847</t>
+          <t>-36.727793201163905,175.68958876280945</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -35319,7 +35319,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>-36.727595264841895,175.68958226243555</t>
+          <t>-36.727594364312644,175.68958223286165</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -35371,7 +35371,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>-36.72770720062455,175.68958593848063</t>
+          <t>-36.72770657025411,175.6895859177788</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>-36.727702878084315,175.6895857965252</t>
+          <t>-36.7277019775551,175.68958576695113</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -35527,7 +35527,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>-36.72761066389178,175.68958276814928</t>
+          <t>-36.72761138431515,175.68958279180842</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -35579,7 +35579,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>-36.72758860092555,175.6895820435888</t>
+          <t>-36.72758743023754,175.68958200514274</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>-36.72773574740061,175.68958687597902</t>
+          <t>-36.72773520708308,175.68958685823455</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>-36.727650377230766,175.68958407236022</t>
+          <t>-36.72765136781292,175.6895841048916</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -35735,7 +35735,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>-36.72760003764682,175.68958241917719</t>
+          <t>-36.72759940727635,175.68958239847547</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -35787,7 +35787,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>-36.727604360187144,175.6895825611319</t>
+          <t>-36.72760282928745,175.68958251085627</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -35839,7 +35839,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>-36.72764182220312,175.68958379140753</t>
+          <t>-36.727643172996956,175.68958383576847</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -35891,7 +35891,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>-36.72763380749299,175.6895835281993</t>
+          <t>-36.72763551849852,175.68958358438985</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>-36.72760084812314,175.68958244579372</t>
+          <t>-36.727601208334825,175.68958245762326</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -35983,7 +35983,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>-36.72771080274141,175.6895860567769</t>
+          <t>-36.72771197342939,175.68958609522318</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>-36.727766005181984,175.6895878696696</t>
+          <t>-36.72776474444108,175.6895878282658</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>-36.72767766326622,175.68958496845224</t>
+          <t>-36.727676942842834,175.68958494479304</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -36139,7 +36139,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>-36.72770738073039,175.68958594439547</t>
+          <t>-36.727708191206695,175.68958597101212</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
